--- a/model_x3/model_train_sumary.xlsx
+++ b/model_x3/model_train_sumary.xlsx
@@ -31,482 +31,2241 @@
     <t>ol_bias</t>
   </si>
   <si>
-    <t>[[3.5488057]]</t>
-  </si>
-  <si>
-    <t>[[-1.5771402 -2.0795438]]</t>
-  </si>
-  <si>
-    <t>[[-1.3299329 -1.8551772 -1.8894706]]</t>
-  </si>
-  <si>
-    <t>[[-1.1726629   0.7695466   0.46300116 -1.2522101 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.9040469 -1.2551761  0.5476285 -1.0959549 -0.5400924]]</t>
-  </si>
-  <si>
-    <t>[[ 1.3888783  -1.4595321   1.2821759  -0.64347523  0.11518641 -0.41258752]]</t>
-  </si>
-  <si>
-    <t>[[ 1.2017422  -1.0960891   0.23504491  0.03639875  0.9110716  -1.0582453
-  -0.7215976 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.8020923  -0.26281574  0.931228    0.11574826 -0.98025006  1.0168315
-   0.27636772  0.9542725 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.68106884  0.2982384  -0.53705114  1.0105788   0.6562536  -0.05048872
-   0.44495752  1.0131787   0.97831666]]</t>
-  </si>
-  <si>
-    <t>[[ 0.07493901 -0.08529165 -0.66315955  0.27091345 -0.75935173  0.8164964
-  -0.9978314  -0.03020885  0.6379278  -0.8024406 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.37413436  0.31476846  0.20277965 -0.60085416 -0.835652    0.34833583
-   0.21142629  0.9038998   0.57964617  0.6588642  -0.85590136]]</t>
-  </si>
-  <si>
-    <t>[[ 0.01340029  0.05379263 -0.26833004 -0.14922945  0.12705065 -0.7929358
-   0.46772447 -0.4747795   0.9168325   0.93042755 -0.08523357  0.91868   ]]</t>
-  </si>
-  <si>
-    <t>[[-0.15406324 -0.272195    0.49556398  0.42051885 -0.7609068  -0.8037003
-   0.20201866 -0.34520468  0.13462847 -0.674596    0.7085562  -0.43450862
-  -0.3293622 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.1291396   0.42773452 -0.57237905  0.15483138  0.16586426 -0.54335886
-  -0.19049788  0.08387956  1.003012   -0.19848116  0.06055283 -0.99400085
-  -0.5361711  -0.7116585 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.774703   -0.04421654  0.58324736  0.31472638  0.34290412  0.7406594
-   0.30349284 -0.6102667   0.27451602 -0.02544163  0.00730827  0.21616459
-  -0.6129572   0.46514842 -0.6084436 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.26119152  0.6692205   0.4556422  -0.65478784  0.0726914  -0.6666042
-  -0.19193347  0.12032684 -0.22389926 -0.28602934  0.23523602 -0.3074111
-   0.63137007 -0.45335728  0.35053048  0.4347607 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.70399165  0.1267221   0.09072739  0.03067203  0.786638    0.17815495
-  -0.28980958  0.7748972   0.6901491   0.17938408  0.13272068 -0.21494105
-  -0.17980231 -0.2793428   0.6642512  -0.38655788 -0.08510347]]</t>
-  </si>
-  <si>
-    <t>[[ 0.19254027  0.01123419  0.05754931  0.55360585  0.28578123 -0.5501053
-  -0.5169025   0.5179691   0.7910261  -0.4242505   0.08130028 -0.1217896
-  -0.34776586  0.2946763   0.2526546   0.16993628  0.76207286  0.7658164 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.5213442  -0.54547673 -0.70304877  0.22977772  0.5598432  -0.10060339
-   0.37757376 -0.6917597  -0.7464669   0.5483657  -0.08561272 -0.25135013
-   0.05166349 -0.14098838  0.0449604  -0.22725789 -0.08586679 -0.09015662
-  -0.1665359 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.13639778 -0.2589148   0.29550636  0.07434297  0.38492283 -0.36288637
-   0.20154877 -0.05615574  0.78848374  0.48174024 -0.39625913 -0.4551569
-  -0.464684    0.40830094  0.19264631 -0.6677676   0.16256836 -0.20558237
-   0.02332377  0.4620602 ]]</t>
-  </si>
-  <si>
-    <t>[-0.4568926]</t>
-  </si>
-  <si>
-    <t>[-0.39506364 -0.13138118]</t>
-  </si>
-  <si>
-    <t>[-0.48226213 -0.23117834 -0.1034619 ]</t>
-  </si>
-  <si>
-    <t>[-0.07048611  0.07211644  0.10790958 -0.07321071]</t>
-  </si>
-  <si>
-    <t>[ 0.16013074 -0.11677431  0.15346116 -0.1294228  -0.13011102]</t>
-  </si>
-  <si>
-    <t>[ 0.15128267 -0.0416098   0.12295759  0.00093973  0.04326997 -0.0154998 ]</t>
-  </si>
-  <si>
-    <t>[ 0.1418704  -0.00177625 -0.00321083  0.03373142  0.03553883 -0.01367859
-  0.00997868]</t>
-  </si>
-  <si>
-    <t>[-0.02387953  0.00251506  0.07417718  0.0294075  -0.04197148  0.09498248
- -0.69286627  0.07620899]</t>
-  </si>
-  <si>
-    <t>[ 0.18054767 -0.23387304  0.22670685 -0.02475278 -0.14425965  0.27277792
- -0.19006957 -0.07966384 -0.04999669]</t>
-  </si>
-  <si>
-    <t>[ 0.02289695  0.04275101 -0.02489317  0.09644183 -0.01687925  0.06647983
- -0.06206799  0.05204162  0.18822277 -0.04390777]</t>
-  </si>
-  <si>
-    <t>[ 0.08688857 -0.01743786 -0.03889592  0.03198449  0.00077999 -0.00909253
-  0.08490417  0.04437434 -0.00217439  0.00864025 -0.00939215]</t>
-  </si>
-  <si>
-    <t>[ 0.12775162 -0.05311194  0.10640827  0.11722194 -0.08174694  0.05166048
- -0.04625271  0.08448783  0.01453158  0.05456811 -0.02832193  0.02808033]</t>
-  </si>
-  <si>
-    <t>[-0.09825151 -0.16112131  0.19712578  0.19872683 -0.08035045 -0.14481737
-  0.26017132 -0.15220034  0.22038935 -0.15917195  0.2218041  -0.15970461
- -0.14565901]</t>
-  </si>
-  <si>
-    <t>[-0.02513857  0.09332179 -0.03007454 -0.03437218 -0.00961622 -0.03728364
- -0.02161498  0.08333416  0.12634721 -0.04072673  0.08408311 -0.07539009
- -0.04162553 -0.07478692]</t>
-  </si>
-  <si>
-    <t>[ 0.00265406  0.07178581  0.0135865   0.00067551  0.1656524   0.03213836
-  0.00428775  0.01403944 -0.01580915  0.129021   -0.02522524  0.07680615
-  0.02264976  0.01452691  0.01342408]</t>
-  </si>
-  <si>
-    <t>[-0.00119949  0.08624236  0.05108016 -0.04034377  0.05044902 -0.021834
- -0.00757471  0.04131345 -0.0085735  -0.00723126  0.03980179 -0.0061596
-  0.06643439 -0.01780434 -0.00450203  0.0486225 ]</t>
-  </si>
-  <si>
-    <t>[-0.00028904  0.09968868  0.12554765 -0.02695107  0.0469927   0.23518355
-  0.0675372   0.03584952  0.0282888   0.08239959 -0.00512977  0.06906151
-  0.09840979  0.07861621  0.05480662  0.11113363  0.09236316]</t>
-  </si>
-  <si>
-    <t>[ 0.03502882  0.02390373  0.11879843  0.06113932  0.02657331  0.04827562
- -0.00528833  0.03767029  0.10697943  0.0076643   0.03223547  0.04719958
-  0.05333482  0.03486112  0.04202592  0.11335809  0.0588032   0.06196252]</t>
-  </si>
-  <si>
-    <t>[-0.06520811 -0.06510507 -0.07631689  0.0914829   0.10580668  0.09921692
-  0.09236463 -0.05950772 -0.07445303  0.09873142 -0.04346424 -0.05184588
-  0.00035602 -0.03196843  0.0983493   0.10036717  0.0863806  -0.00704987
- -0.03612573]</t>
-  </si>
-  <si>
-    <t>[ 0.05851676  0.01773403  0.03871913  0.06189367  0.0365964   0.01122618
-  0.04116375  0.11439291  0.08140021  0.1102438   0.02611871  0.03345102
-  0.01172999  0.05415159  0.03158084 -0.03449972  0.03892692  0.01050318
-  0.024785    0.14833851]</t>
-  </si>
-  <si>
-    <t>[[1.290508]]</t>
-  </si>
-  <si>
-    <t>[[-0.79508173]
- [-1.3764683 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.76338756]
- [-1.0773561 ]
- [-0.5604657 ]]</t>
-  </si>
-  <si>
-    <t>[[-1.0928147 ]
- [ 1.3945174 ]
- [ 0.39130315]
- [-0.9909827 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.7620991]
- [-0.6340758]
- [ 1.1320949]
- [-1.0324119]
- [-0.9225395]]</t>
-  </si>
-  <si>
-    <t>[[ 0.60050327]
- [-0.82424444]
- [ 0.6122018 ]
- [-0.5772239 ]
- [ 1.0179938 ]
- [-1.0711958 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.55719185]
- [-0.5475364 ]
- [ 0.50275093]
- [-0.04927033]
- [ 1.0670521 ]
- [-0.6514785 ]
- [-0.8913049 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.7889856 ]
- [-0.88041264]
- [ 0.64890045]
- [ 0.544157  ]
- [-0.9322805 ]
- [ 0.55481285]
- [ 0.01324254]
- [ 0.65199244]]</t>
-  </si>
-  <si>
-    <t>[[-1.229432  ]
- [ 0.6279618 ]
- [-0.642315  ]
- [ 0.40152496]
- [ 0.41119105]
- [-0.33959728]
- [ 0.36672646]
- [ 0.95498437]
- [ 0.42387167]]</t>
-  </si>
-  <si>
-    <t>[[ 0.6670968 ]
- [ 0.3047354 ]
- [-0.6799493 ]
- [-0.07072227]
- [-0.4769561 ]
- [ 1.146318  ]
- [-0.82678854]
- [ 0.27547443]
- [ 0.3798654 ]
- [-0.94243395]]</t>
-  </si>
-  <si>
-    <t>[[-0.54346424]
- [ 0.44117692]
- [ 0.7062189 ]
- [-0.68328106]
- [-0.70356464]
- [ 0.39545304]
- [-0.7120786 ]
- [ 0.7379396 ]
- [ 0.75000894]
- [ 0.72971255]
- [-1.002018  ]]</t>
-  </si>
-  <si>
-    <t>[[-0.77929085]
- [ 0.2133386 ]
- [-0.7034851 ]
- [-0.7175407 ]
- [ 0.56199485]
- [-0.5675876 ]
- [ 0.66179687]
- [-0.662195  ]
- [ 1.0160931 ]
- [ 0.54073966]
- [ 0.10000357]
- [ 0.67438823]]</t>
-  </si>
-  <si>
-    <t>[[-0.19140387]
- [-0.5666084 ]
- [ 0.9156528 ]
- [ 0.90852183]
- [-0.4172464 ]
- [-0.57926446]
- [ 0.3724516 ]
- [-0.4942099 ]
- [ 0.19931303]
- [-0.7701831 ]
- [ 0.60683686]
- [-0.6881216 ]
- [-0.42279023]]</t>
-  </si>
-  <si>
-    <t>[[-0.25469738]
- [ 0.7878785 ]
- [-0.3806592 ]
- [-0.3253055 ]
- [-0.16529848]
- [-0.40191162]
- [-0.3006654 ]
- [ 0.7537756 ]
- [ 1.2429806 ]
- [-0.46898532]
- [ 0.71954095]
- [-0.5502969 ]
- [-0.4226708 ]
- [-0.7263835 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.5678373 ]
- [-0.5578094 ]
- [ 0.7592678 ]
- [ 0.41839966]
- [ 0.19664946]
- [ 0.8781562 ]
- [ 0.3806148 ]
- [-0.734268  ]
- [ 0.5876866 ]
- [-0.19926962]
- [ 0.3761328 ]
- [-0.63284785]
- [-0.5566152 ]
- [ 0.48007864]
- [-0.76440555]]</t>
-  </si>
-  <si>
-    <t>[[-0.43227077]
- [ 0.5617362 ]
- [ 0.8312094 ]
- [-0.7016457 ]
- [ 0.35954043]
- [-0.46992588]
- [-0.6967375 ]
- [ 0.519223  ]
- [-0.6853178 ]
- [-0.5597708 ]
- [ 0.69956875]
- [-0.51745474]
- [ 0.86770153]
- [-0.57180715]
- [-0.38307244]
- [ 0.87234634]]</t>
-  </si>
-  <si>
-    <t>[[-0.9118402 ]
- [ 0.1491739 ]
- [-0.19760334]
- [ 0.48624644]
- [ 0.7227268 ]
- [-0.08298168]
- [-0.43851876]
- [ 0.9576963 ]
- [ 0.80461746]
- [-0.47552085]
- [ 0.33817583]
- [-0.4632695 ]
- [-0.3100648 ]
- [-0.37932625]
- [ 0.5098946 ]
- [-0.29610106]
- [-0.32866842]]</t>
-  </si>
-  <si>
-    <t>[[-0.37833303]
- [ 0.38690683]
- [-0.16962485]
- [ 0.48340043]
- [-0.42895782]
- [-0.4373778 ]
- [-0.78688   ]
- [ 0.7592466 ]
- [ 0.5244441 ]
- [-0.6412069 ]
- [-0.46161014]
- [-0.3553296 ]
- [-0.37894356]
- [-0.31769347]
- [ 0.3574571 ]
- [-0.1322118 ]
- [ 0.96655613]
- [ 0.85750395]]</t>
-  </si>
-  <si>
-    <t>[[-0.6599987 ]
- [-0.6147162 ]
- [-0.6138882 ]
- [ 0.56539047]
- [ 0.706898  ]
- [ 0.359642  ]
- [ 0.70483327]
- [-0.45825422]
- [-0.54308945]
- [ 0.8581132 ]
- [-0.5055615 ]
- [-0.6570109 ]
- [-0.1441006 ]
- [-0.3350707 ]
- [ 0.3941297 ]
- [ 0.3639585 ]
- [ 0.5532828 ]
- [-0.19976652]
- [-0.37598404]]</t>
-  </si>
-  <si>
-    <t>[[ 0.177702  ]
- [-0.46398884]
- [ 0.5337051 ]
- [-0.19986917]
- [ 0.7400848 ]
- [-0.4824229 ]
- [ 0.41461048]
- [ 0.10368434]
- [ 0.7603328 ]
- [ 0.37213635]
- [-0.39280215]
- [-0.3841709 ]
- [-0.44889677]
- [ 0.48898238]
- [ 0.5262208 ]
- [-0.9292432 ]
- [-0.27837056]
- [-0.63476133]
- [-0.45877847]
- [ 0.32163703]]</t>
-  </si>
-  <si>
-    <t>[-0.53841364]</t>
-  </si>
-  <si>
-    <t>[0.9531749]</t>
-  </si>
-  <si>
-    <t>[1.0224113]</t>
-  </si>
-  <si>
-    <t>[0.0502066]</t>
-  </si>
-  <si>
-    <t>[0.16449359]</t>
-  </si>
-  <si>
-    <t>[0.0269313]</t>
-  </si>
-  <si>
-    <t>[-0.05397345]</t>
-  </si>
-  <si>
-    <t>[0.00724974]</t>
-  </si>
-  <si>
-    <t>[-0.31560588]</t>
-  </si>
-  <si>
-    <t>[-0.00151064]</t>
-  </si>
-  <si>
-    <t>[-0.06941872]</t>
-  </si>
-  <si>
-    <t>[-0.119726]</t>
-  </si>
-  <si>
-    <t>[0.21230483]</t>
-  </si>
-  <si>
-    <t>[0.06664228]</t>
-  </si>
-  <si>
-    <t>[-0.05967029]</t>
-  </si>
-  <si>
-    <t>[0.01851974]</t>
-  </si>
-  <si>
-    <t>[-0.05821434]</t>
-  </si>
-  <si>
-    <t>[-0.0053219]</t>
-  </si>
-  <si>
-    <t>[0.06443095]</t>
-  </si>
-  <si>
-    <t>[-0.00049047]</t>
+    <t>[[-0.8190976 ]
+ [-0.06988235]
+ [ 0.04448612]
+ [ 0.01073933]
+ [ 0.0394789 ]
+ [-0.01523681]
+ [ 0.07245765]
+ [-0.02259226]
+ [ 0.04030924]
+ [ 0.00457515]
+ [ 0.05992582]
+ [-0.03133605]
+ [ 0.04086547]
+ [-0.00106325]
+ [ 0.05683479]
+ [ 0.00795801]
+ [ 0.050525  ]
+ [-0.0715238 ]
+ [ 0.07847854]
+ [-0.02012021]
+ [ 0.04572968]
+ [ 0.00474523]
+ [ 0.06387802]
+ [-0.05752001]
+ [ 0.09693593]
+ [-0.00391229]
+ [ 0.04106785]
+ [-0.0071139 ]
+ [ 0.05985175]
+ [-0.01907003]
+ [ 0.02336711]
+ [ 0.04317465]
+ [ 0.03788672]
+ [-0.06490445]]</t>
+  </si>
+  <si>
+    <t>[[ 0.83935815 -0.87658566]
+ [ 0.52406764 -0.00605177]
+ [-0.14648478 -0.01288952]
+ [-0.06807959  0.07774245]
+ [ 0.28092852  0.18733129]
+ [-0.3391696  -0.15361631]
+ [-0.10046479 -0.08697125]
+ [-0.18295214  0.0270568 ]
+ [-0.00415944 -0.13272734]
+ [-0.17992307 -0.11056308]
+ [-0.46619415  0.0228833 ]
+ [ 0.56015176 -0.10237222]
+ [-0.36746576  0.07781433]
+ [ 0.1538135   0.07047515]
+ [-0.1384115  -0.08019709]
+ [-0.01199422  0.01410794]
+ [ 0.17196985  0.24619387]
+ [-0.16627344 -0.32011443]
+ [ 0.03482686  0.2193653 ]
+ [ 0.00282461 -0.07588979]
+ [-0.03039082  0.09066632]
+ [ 0.01235134 -0.05680535]
+ [-0.03947834  0.09790207]
+ [ 0.02185801 -0.24688381]
+ [-0.15634832  0.13887894]
+ [ 0.0261653   0.19867896]
+ [-0.11139123  0.00779043]
+ [-0.07227832 -0.27288195]
+ [-0.19674331  0.08257286]
+ [-0.12835202 -0.11238369]
+ [-0.22286305 -0.27896094]
+ [-0.03512787  0.19388273]
+ [-0.12999235 -0.08389267]
+ [ 0.2615572  -0.15784666]]</t>
+  </si>
+  <si>
+    <t>[[ 1.059052   -0.5858295  -0.03722428]
+ [ 0.12105971 -0.04217472 -0.1791482 ]
+ [ 0.0038475   0.08249202  0.07705472]
+ [ 0.04850794  0.03283707 -0.0214785 ]
+ [-0.13755281 -0.1416953  -0.42094553]
+ [ 0.04195331  0.04116316 -0.02919611]
+ [-0.1148395  -0.07253444  0.15077703]
+ [-0.16214702 -0.08906782  0.06586134]
+ [ 0.17674248 -0.07772683 -0.4948237 ]
+ [-0.32915917 -0.14048876 -0.04951746]
+ [-0.34178406  0.12688683  0.52536386]
+ [ 0.46104574  0.13711971 -0.23356079]
+ [-0.5445633  -0.34002683  0.06578058]
+ [-0.0521697   0.15286544  0.0508921 ]
+ [ 0.10871503  0.18515623  0.44241944]
+ [-0.527      -0.16000423  0.06699739]
+ [ 0.4459234  -0.04227285 -0.3350226 ]
+ [ 0.0973922  -0.06686576 -0.29326814]
+ [-0.18035628  0.08386292  0.1399262 ]
+ [ 0.02675772 -0.13817476  0.14822969]
+ [ 0.18909329  0.16585122 -0.34567073]
+ [-0.36785334 -0.23792475 -0.05483291]
+ [-0.04070536 -0.07751722  0.3207839 ]
+ [-0.1368776  -0.02996618 -0.32975295]
+ [ 0.10322911  0.1515326   0.14169024]
+ [-0.22236331 -0.00893487  0.2687121 ]
+ [ 0.4278753   0.22173236  0.11476151]
+ [-0.2285232  -0.06296413 -0.32401484]
+ [ 0.08504433 -0.03342151 -0.15974797]
+ [-0.25436807  0.02590217  0.47231275]
+ [ 0.04472526  0.07147284 -0.1627781 ]
+ [-0.02497459 -0.29529753 -0.6898565 ]
+ [ 0.10231856  0.06537423  0.29107717]
+ [-0.11200397 -0.10642362  0.28913817]]</t>
+  </si>
+  <si>
+    <t>[[-0.8288021  -0.34705728  1.0272682   0.02657069]
+ [ 0.1883752  -0.33840305  0.21760109  0.01069603]
+ [ 0.0426209  -0.19267765  0.07024636 -0.14953998]
+ [ 0.24922737 -0.29867074 -0.10737932  0.24069065]
+ [-0.13751653  0.31434104  0.18019734 -0.2518282 ]
+ [-0.05802576  0.09791701  0.2656403  -0.16036406]
+ [-0.22528832  0.15208662 -0.07574328  0.21843214]
+ [-0.3262198   0.40531558 -0.20786543  0.08287713]
+ [-0.02329263  0.02568765 -0.29770985 -0.00674724]
+ [-0.23468938  0.15733042 -0.05885999 -0.19000714]
+ [ 0.12152364  0.38954407 -0.3958168   0.18001899]
+ [-0.09040954  0.04375179  0.31958303  0.35099033]
+ [-0.2513673  -0.11302081 -0.3364757   0.06035204]
+ [ 0.02369461  0.3767658   0.16103224 -0.16686288]
+ [ 0.02455962 -0.16334513 -0.01013402 -0.05792701]
+ [-0.02934259 -0.05011188 -0.00877757 -0.18882039]
+ [ 0.14620684  0.37895557  0.2345033   0.38223705]
+ [-0.14943197 -0.11150768 -0.17266591 -0.47728947]
+ [ 0.27349263 -0.08677735 -0.31797013  0.33951753]
+ [-0.02860188  0.30685878  0.21565281 -0.01722395]
+ [ 0.33231243  0.28273198  0.44627303 -0.1932639 ]
+ [ 0.13025519 -0.16235287  0.14148006 -0.1711697 ]
+ [ 0.24113117  0.08555344  0.3497052   0.15030539]
+ [-0.20626481  0.25511453  0.09143553 -0.26676136]
+ [-0.19727398  0.74070305  0.19609398 -0.22453143]
+ [ 0.11985759  0.32443672 -0.13523461  0.21844135]
+ [-0.04355611  0.13776176  0.12792729 -0.40996638]
+ [ 0.37059763 -0.217324   -0.03140207  0.22766648]
+ [ 0.23894651  0.04783398  0.0325929  -0.2029801 ]
+ [-0.16345915 -0.27685347 -0.1619262   0.12362639]
+ [-0.15159275 -0.03714001 -0.28079194 -0.06941462]
+ [ 0.11490057 -0.1147306   0.07250361  0.07498855]
+ [ 0.07039199 -0.03635557  0.09902883  0.00741161]
+ [-0.05909838 -0.22729994  0.31140104 -0.16596118]]</t>
+  </si>
+  <si>
+    <t>[[ 1.1558433  -0.50847626 -0.2297746   0.04729217 -0.5495132 ]
+ [ 0.43615675  0.15354219 -0.3164592  -0.0424784  -0.05501613]
+ [-0.21237688  0.3462069  -0.3031023   0.27013683 -0.49456692]
+ [ 0.18376619 -0.02511769  0.7907313  -0.20452225 -0.33109888]
+ [ 0.48672456  0.33975464  0.25509667  0.3623861  -0.01495602]
+ [-0.21483007  0.14039764 -0.26016706 -0.01533254 -0.29084802]
+ [ 0.15475924 -0.02108335  0.21376099  0.29669878  0.09754545]
+ [-0.11761654  0.3802897  -0.51160264  0.3816934  -0.18243049]
+ [-0.27430403  0.20901988 -0.39956716 -0.2777146   0.30380353]
+ [-0.02008161  0.17480735  0.11224201  0.07209437  0.13023086]
+ [-0.4949162  -0.08392226  0.36208785 -0.03994983 -0.07998205]
+ [ 0.5492136  -0.7200213  -0.2330255   0.3866039   0.40346578]
+ [-0.50940824  0.02827852 -0.41225526  0.03064067  0.12534975]
+ [ 0.23512799 -0.2942734  -0.04376914 -0.02105716  0.24499455]
+ [ 0.18873581  0.16564125  0.30983013  0.07498643  0.07780146]
+ [-0.36959863 -0.27209142  0.05216848 -0.321688    0.06942584]
+ [ 0.470601    0.2815564  -0.01845861  0.05420953  0.01647848]
+ [-0.41861615 -0.5908469   0.16765304  0.00443104  0.19031832]
+ [-0.24462423 -0.04685566  0.4186811   0.071197    0.14267777]
+ [ 0.01249417  0.11772402 -0.17544924 -0.1679548  -0.37263337]
+ [ 0.04488558  0.25289595  0.11214495  0.06995429 -0.10792797]
+ [-0.30606392 -0.01812319  0.38046494 -0.38101572 -0.09113298]
+ [ 0.34954438  0.03840485  0.13582358 -0.00838238  0.6071035 ]
+ [ 0.04596827 -0.56820726 -0.124176    0.10904408 -0.00457852]
+ [-0.43707103  0.21051554 -0.06497241 -0.21041852  0.0427351 ]
+ [ 0.00771446  0.37625894 -0.41460028 -0.22248253  0.34881756]
+ [ 0.03618427 -0.6944136   0.26299554  0.16678669  0.27160838]
+ [-0.38794065 -0.16662027  0.46732363 -0.28340533  0.02725977]
+ [-0.07937524  0.0817194   0.60874456  0.1857787  -0.36193347]
+ [-0.04553795 -0.25639722 -0.21857926  0.1065189  -0.4945871 ]
+ [-0.18404076  0.19870524 -0.2283512  -0.17220214  0.16718258]
+ [-0.3103382   0.29428196  0.3345063  -0.1610822  -0.38651225]
+ [ 0.05038933 -0.20889643  0.21122326  0.01279125  0.02270028]
+ [ 0.23875153  0.11492904 -0.17025003  0.04189434 -0.6687682 ]]</t>
+  </si>
+  <si>
+    <t>[[ 0.41404748 -0.04588678  0.09477168 -0.7778752  -0.73032284 -0.15293542]
+ [ 0.243985   -0.080061    0.0520588   0.06840589 -0.23951533  0.19149642]
+ [-0.13387789  0.04259087  0.22964482  0.5601646  -0.47722     0.04166946]
+ [-0.5202598  -0.37109995  0.12643829  0.1708783   0.16474795  0.14458682]
+ [ 0.04168302  0.2866787  -0.09605139 -0.282384   -0.29949924 -0.03982079]
+ [ 0.30277744 -0.02595897 -0.17085631 -0.10283595  0.00568012  0.16128705]
+ [-0.13503364  0.0127691  -0.3449104  -0.20934412  0.17621629 -0.11463095]
+ [-0.5095668  -0.04893477  0.16186222 -0.29642445 -0.28347743  0.08233028]
+ [ 0.382804    0.05918267 -0.4467313   0.20175828 -0.32344088  0.36251813]
+ [-0.10617438  0.24530633 -0.23306462 -0.32450128  0.12466647 -0.27481753]
+ [-0.24997777 -0.28295493  0.09033307 -0.15497674  0.2592286   0.32197756]
+ [-0.18158692  0.23463151  0.27853256  0.26551875 -0.18804625 -0.5100731 ]
+ [-0.39297062 -0.01493669 -0.08270815 -0.03699858 -0.47722867  0.24997474]
+ [ 0.1052644  -0.17002122  0.10275374  0.04053777  0.36052588  0.22914855]
+ [ 0.06281012 -0.12615879 -0.10465124 -0.14243855  0.31009203 -0.40986624]
+ [-0.21946768 -0.25255743  0.19781141  0.17453828 -0.18552867 -0.13742422]
+ [ 0.08874724 -0.08080426 -0.4068381  -0.38665655  0.4158179  -0.0811417 ]
+ [ 0.37148598  0.16891125  0.09367286  0.18671885 -0.29347405  0.25743997]
+ [-0.07763181 -0.08905758  0.02816641  0.22293194 -0.0594445   0.11383209]
+ [-0.10714325 -0.2942561   0.04465033  0.03350515  0.11328771  0.00656903]
+ [-0.2808262  -0.3267069   0.5032832   0.0388332   0.05375705  0.11895566]
+ [-0.03504035 -0.2770512   0.01209315  0.31541058  0.25951785 -0.40784845]
+ [ 0.31143954  0.38753253 -0.31547523  0.09149367  0.62646323 -0.458932  ]
+ [ 0.12464887  0.00631468  0.04514475 -0.36129522  0.07727765 -0.02597661]
+ [-0.40688777  0.09282447  0.2121342   0.2893009  -0.24240066  0.01166264]
+ [ 0.38294846 -0.04840041  0.01680039  0.27918032 -0.05563624  0.61690813]
+ [ 0.27296063  0.07542714  0.215964   -0.16857558  0.15873802  0.31921974]
+ [-0.40069842 -0.04262253 -0.21858768 -0.3414936  -0.08529699  0.01328001]
+ [ 0.0557327  -0.061849   -0.4660694  -0.38194188  0.5114749  -0.2962315 ]
+ [-0.00750267 -0.13586427 -0.30126673  0.00518393 -0.05228799  0.16502501]
+ [-0.04282527 -0.1515452  -0.05027619  0.34493536 -0.21808665 -0.52311987]
+ [ 0.03135511  0.01398802  0.09310214  0.41973355  0.12777694 -0.27755642]
+ [-0.42884597  0.16900045  0.402472   -0.08440435 -0.0069663   0.15025361]
+ [ 0.11357598 -0.16471174 -0.24316636 -0.22610128 -0.23696819 -0.09513509]]</t>
+  </si>
+  <si>
+    <t>[[-3.24816376e-01 -4.97713424e-02  3.57237577e-01  4.04582292e-01
+   1.46896511e-01  5.94850421e-01 -5.81703663e-01]
+ [-4.98883054e-02 -8.36170688e-02  3.02689105e-01  5.18875897e-01
+  -4.57079053e-01 -1.63761318e-01 -8.83526951e-02]
+ [-3.21708351e-01  1.01477377e-01  6.30923063e-02  1.20186768e-01
+   2.04803348e-01 -8.49816054e-02  1.71019271e-01]
+ [ 5.19114375e-01  7.15609193e-02 -1.11133024e-01 -7.75591880e-02
+  -3.52192551e-01  4.16084677e-02 -3.37351799e-01]
+ [-1.18631653e-01  3.60993087e-01  1.23050041e-01  1.83956221e-01
+   1.18052088e-01 -1.21875323e-01  2.94871122e-01]
+ [-8.43887478e-02  3.27424109e-02 -7.87774250e-02  1.92586966e-02
+   9.04416516e-02  1.27732545e-01 -5.57539314e-02]
+ [-2.01235667e-01  4.60872412e-01 -1.34216368e-01 -3.92705426e-02
+  -4.98754904e-02 -2.32873395e-01  2.68691212e-01]
+ [-1.66497067e-01  2.15761408e-01  7.66083077e-02 -5.22792876e-01
+  -4.26103845e-02 -2.56687533e-02  2.23540410e-01]
+ [ 1.65990666e-01 -1.88614205e-01  3.48295808e-01  3.01739909e-02
+   1.28642544e-01 -2.94660717e-01 -1.42328635e-01]
+ [-6.91837966e-02  2.11887151e-01  3.00102234e-01 -2.35041410e-01
+   4.55179550e-02  9.75949690e-02  1.02912039e-01]
+ [ 2.76385307e-01  3.40123475e-02 -4.44996476e-01 -6.07142560e-02
+   1.86434478e-01  3.95090505e-02 -6.27446221e-03]
+ [-1.75832823e-01 -1.43507436e-01  5.29968217e-02  4.40858871e-01
+   5.29647291e-01  2.82339424e-01  1.24103189e-01]
+ [-3.42048019e-01 -2.60576308e-01 -8.68259966e-02  1.50529310e-01
+  -4.07051295e-02 -1.27760559e-01 -8.64155814e-02]
+ [ 8.56109113e-02 -1.52150765e-01  8.10790956e-02 -1.37786284e-01
+  -9.24655870e-02  4.86028522e-01  2.56836236e-01]
+ [-1.35311738e-01 -3.11576724e-01 -2.15770200e-01  2.32752591e-01
+  -5.93093671e-02  1.85657442e-02  1.35015041e-01]
+ [-1.84097499e-01  2.85110801e-01 -2.35775113e-01  1.33627374e-03
+   3.14047575e-01  7.97564238e-02 -1.13764636e-01]
+ [-7.90065378e-02  2.14330792e-01  1.09449767e-01 -4.31318302e-04
+   3.63464281e-02  2.82973349e-01  3.06255102e-01]
+ [-3.67125161e-02 -3.05985689e-01  2.37276718e-01 -9.39734131e-02
+   5.10493442e-02 -2.76989102e-01  6.75618649e-02]
+ [ 1.97385382e-02 -3.81495237e-01  2.16378987e-01  3.87503326e-01
+   6.81214333e-02 -1.92894042e-01  8.08025897e-02]
+ [-7.35474303e-02 -2.23256543e-01  1.81601673e-01  2.74776667e-02
+  -9.71091986e-02  2.52808660e-01 -1.32494628e-01]
+ [ 3.38190973e-01 -1.61481664e-01  3.98008488e-02  2.32839227e-01
+  -3.44433427e-01 -7.27881491e-02  8.66774023e-02]
+ [-1.60586342e-01 -6.21115649e-03  2.65634745e-01 -1.37825400e-01
+   3.03909749e-01 -8.18264261e-02 -1.26248360e-01]
+ [ 2.05428421e-01 -1.61999986e-01  1.57075986e-01  3.06058556e-01
+  -1.27283067e-01  3.72315273e-02 -1.18325278e-01]
+ [-2.48984620e-01 -3.37735116e-01  2.27353349e-01  2.13853762e-01
+   2.07707241e-01 -2.54662871e-01 -9.06459987e-02]
+ [ 1.69046953e-01 -2.05278039e-01  1.15394078e-01 -1.63700670e-01
+  -7.74872899e-02 -2.40056664e-01  5.94558679e-02]
+ [ 1.99583888e-01 -1.70998499e-02  5.14376275e-02  1.30349800e-01
+  -1.48979664e-01  4.59526591e-02  1.93600878e-02]
+ [ 3.55691761e-01  4.43581671e-01 -6.21980764e-02  7.98744559e-02
+   5.28060794e-01 -1.70103356e-01 -3.23119640e-01]
+ [-9.54813436e-02  1.73184410e-01  4.77802530e-02 -2.91156739e-01
+   3.17588091e-01  7.94368833e-02  1.81878775e-01]
+ [ 9.63916779e-02 -3.72959614e-01 -9.04210359e-02 -1.85701460e-01
+  -7.77687430e-02  2.08395511e-01 -2.18271181e-01]
+ [-2.37650663e-01 -4.48503822e-01  1.28768936e-01 -1.59582663e-02
+  -1.08516350e-01 -4.43050042e-02  1.96984354e-02]
+ [-9.41623654e-03  3.78277123e-01 -1.28931135e-01 -1.80816770e-01
+   2.79606402e-01 -1.52835697e-01 -3.76758784e-01]
+ [-7.44281858e-02 -5.32110855e-02 -1.81105822e-01  1.18348874e-01
+   6.99821487e-02  8.09271634e-02 -5.67792095e-02]
+ [-1.67904586e-01  3.57783318e-01 -3.50389838e-01  1.05008014e-01
+   1.86189219e-01 -1.08956732e-01  2.61432946e-01]
+ [ 4.56177860e-01 -4.93148677e-02  1.95281044e-01  1.99918345e-01
+  -2.02017009e-01  5.66150844e-02 -5.77695191e-01]]</t>
+  </si>
+  <si>
+    <t>[[-0.82726806  0.52632755  0.35336798  0.01856342  0.32730848  0.02068763
+  -0.6084676   0.6294142 ]
+ [-0.49906442 -0.3150235   0.17335403 -0.15589347  0.24208845 -0.1526032
+   0.3664123   0.6980463 ]
+ [-0.44127712  0.19357474  0.41487947  0.12563695  0.02886375 -0.02138194
+   0.36691394 -0.14169435]
+ [-0.00755982 -0.55912405  0.3079955  -0.20771228 -0.34791335 -0.27506596
+   0.2744784   0.23511972]
+ [-0.54044724 -0.1387034   0.13383307  0.21860303  0.27766174  0.0397303
+   0.24211581  0.25197747]
+ [ 0.20024216  0.15381041  0.04602871  0.42167905  0.3004764   0.06313249
+  -0.11927388  0.18229689]
+ [-0.22550514 -0.04267235  0.04094578  0.04370038 -0.23862512 -0.11819028
+   0.06302904 -0.10001095]
+ [-0.2014012  -0.13848935 -0.33320117 -0.34152156 -0.17284074 -0.2716946
+   0.02632431  0.33864453]
+ [-0.21599051  0.0548118  -0.4909407  -0.4153436  -0.20196669  0.0031955
+  -0.01245864 -0.24765183]
+ [ 0.08721307  0.21576253  0.15847543 -0.0497517  -0.39016432 -0.3263583
+   0.17590228  0.32285306]
+ [ 0.31580198  0.09279755 -0.39348558  0.04379195  0.24119604  0.44726837
+  -0.32708794 -0.65222794]
+ [ 0.25527972  0.2629811   0.5240833  -0.07826351 -0.1825833  -0.5657639
+  -0.30415404  0.15097077]
+ [-0.14115228  0.186898   -0.24692903  0.22538292 -0.04737337  0.2220127
+   0.04759769  0.18946299]
+ [-0.05630497 -0.23670915  0.21534203 -0.31030828 -0.04571104  0.57935965
+   0.24108222 -0.1316103 ]
+ [ 0.38667575  0.33523023  0.56563574 -0.12190287 -0.22008508 -0.16747285
+   0.32704723  0.35186026]
+ [ 0.03987083 -0.15704198  0.16326432 -0.13300298 -0.6060503  -0.25309953
+   0.08948889  0.4809068 ]
+ [-0.16604029  0.7164696   0.04979483 -0.30434498 -0.31443924  0.22748499
+   0.28306544  0.01581739]
+ [-0.09985322  0.05656115  0.14338489  0.35601708  0.2375553  -0.05604887
+  -0.24549392 -0.3379399 ]
+ [ 0.32848653 -0.21091424 -0.3095502   0.3422902   0.02351418 -0.30994785
+   0.12425234  0.25410992]
+ [ 0.28290945  0.36337996  0.13743976  0.12711133  0.24816388  0.34338862
+  -0.36154902  0.05602146]
+ [-0.11463019 -0.3601118  -0.15411147  0.01221039  0.00753773 -0.02687582
+  -0.0660621   0.15814152]
+ [-0.02666184  0.05595341 -0.06500555 -0.15737824 -0.3143135   0.22360338
+  -0.26996288 -0.08012775]
+ [ 0.12512836  0.05139316  0.39507207 -0.06966945 -0.0373528   0.0433188
+   0.10292194 -0.37342304]
+ [ 0.47713622 -0.32307526  0.16636184  0.11964891  0.19014542 -0.04747636
+  -0.6833362   0.03964059]
+ [ 0.25508687  0.0092753  -0.03870578  0.26697603  0.01929849  0.1450648
+   0.35370445 -0.35490486]
+ [-0.09541011 -0.09721632  0.0164962  -0.00821376 -0.14284718 -0.20485
+   0.38723594  0.45309967]
+ [ 0.38631362  0.14510937 -0.06261522 -0.33685216  0.04981561 -0.3710962
+  -0.11797054 -0.2983971 ]
+ [-0.37886968 -0.40198576 -0.03299499 -0.26444224 -0.35049403  0.1486403
+  -0.00267153 -0.04662767]
+ [-0.17106041  0.23144908 -0.1845609   0.05360198 -0.31609094 -0.00662876
+   0.09403139  0.1583368 ]
+ [-0.6288944  -0.14646943 -0.35747433 -0.4066622  -0.1415314  -0.4340313
+  -0.0325125  -0.31591123]
+ [-0.03582246  0.13080682 -0.54240084 -0.03776859 -0.08675565 -0.07209707
+   0.04757117 -0.11519559]
+ [-0.13173875 -0.0941022  -0.489639    0.22479872  0.08501928  0.13910337
+   0.10242202  0.35681745]
+ [-0.01182941 -0.35820875 -0.08087874 -0.13694565  0.07082847  0.55411696
+  -0.3340239  -0.09295985]
+ [-0.2399775   0.22903377 -0.25027737 -0.46858335  0.03302337 -0.05519105
+   0.52445203  0.32530856]]</t>
+  </si>
+  <si>
+    <t>[[-1.33549869e-01 -3.09657395e-01  5.27061164e-01 -5.20201504e-01
+   1.31767496e-01 -1.79942980e-01 -2.18950480e-01 -5.82105279e-01
+  -1.10382751e-01]
+ [-1.79555088e-01 -5.60676195e-02  6.08303368e-01  3.37271899e-01
+   1.92059010e-01  1.18163474e-01 -9.60218608e-02  8.41431692e-02
+   8.23103189e-02]
+ [-1.15152568e-01 -5.27124822e-01  1.71006635e-01  1.11092001e-01
+  -2.33833909e-01  2.95596749e-01  3.95635426e-01  2.18272284e-01
+  -1.26580387e-01]
+ [-1.40254244e-01  2.20444709e-01 -8.99263620e-02  1.34861141e-01
+  -1.25917122e-01  3.56053472e-01 -1.83536068e-01  5.63373789e-02
+   7.61485100e-02]
+ [-3.96997947e-03 -2.06135452e-01  1.04803257e-01  4.01348770e-02
+  -2.37702727e-01  4.12820518e-01  6.88178912e-02  1.31217435e-01
+   5.04906056e-04]
+ [ 1.32480040e-01 -2.23675698e-01  6.64853491e-03  4.55567539e-01
+   1.83059484e-01  5.17768785e-03 -3.44975352e-01 -5.52409366e-02
+   3.15698504e-01]
+ [-1.82578355e-01  2.93072104e-01 -1.19020388e-01  2.14903448e-02
+  -5.17673492e-02  2.47798249e-01 -2.66875103e-02 -4.96343553e-01
+   2.29130715e-01]
+ [ 2.60565788e-01 -5.19966066e-01  9.12796408e-02  3.00568223e-01
+   1.32036939e-01  5.58702126e-02 -1.68803483e-01 -2.94959962e-01
+   1.90837961e-02]
+ [ 1.18289314e-01 -1.84833199e-01 -4.05720800e-01  1.81826912e-02
+  -4.19060588e-01 -3.74324232e-01 -4.34825309e-02 -5.69957029e-03
+   2.22133487e-01]
+ [ 3.50827694e-01 -5.71068287e-01  5.54841496e-02 -5.67550547e-02
+  -3.70536536e-01  4.04335827e-01  6.41544759e-02  1.33133188e-01
+  -3.12300563e-01]
+ [ 7.98876956e-02  5.28248131e-01 -1.37620166e-01  2.35116601e-01
+  -1.91451341e-01  3.87471139e-01 -6.22352362e-02  3.34313184e-01
+  -3.68395494e-03]
+ [ 5.58223426e-02 -3.21976751e-01  3.72213274e-01 -2.93630719e-01
+   2.77625620e-01 -2.09410161e-01 -2.89735913e-01  2.81442180e-02
+  -1.26495868e-01]
+ [ 7.72851240e-03 -1.24547139e-01 -2.32539460e-01 -1.39557466e-01
+   1.59205079e-01  4.78718638e-01 -2.50572022e-02 -2.19594806e-01
+  -2.00897083e-01]
+ [ 8.42432454e-02  1.16399102e-01 -1.20955311e-01  1.29866078e-02
+  -1.96904272e-01  1.07878037e-01  1.19242147e-01  1.34232447e-01
+   1.17482893e-01]
+ [ 4.12461981e-02  1.12657987e-01  2.87836432e-01 -1.47224993e-01
+   8.85109231e-02  4.24765974e-01 -2.27991268e-01  4.04821008e-01
+  -3.22849542e-01]
+ [ 1.59044474e-01  5.23711033e-02 -1.72573328e-01  3.63460362e-01
+  -5.88845685e-02 -2.91904658e-01 -5.66268004e-02 -2.00734094e-01
+  -3.98626387e-01]
+ [-1.75434202e-01 -1.15744866e-01 -8.50752518e-02  2.45944604e-01
+  -1.62092701e-01  1.19180508e-01  8.84123221e-02  2.04755738e-01
+   2.74423808e-02]
+ [ 2.74422407e-01  1.76737279e-01 -1.73198000e-01 -2.89232492e-01
+  -9.05396882e-03  8.97161439e-02 -3.46014738e-01 -4.72189814e-01
+  -3.02922875e-01]
+ [ 1.79258436e-01 -3.02253123e-02 -2.68105537e-01  2.80119348e-02
+  -1.20519079e-01  1.41259089e-01  2.48618647e-02  6.07918143e-01
+  -3.85866284e-01]
+ [-2.66086519e-01  5.15591539e-02  3.91964078e-01  2.35102162e-01
+   1.39536917e-01  1.82244748e-01  7.13138953e-02 -1.52413771e-01
+  -1.55234054e-01]
+ [-9.61898938e-02 -4.46810842e-01  3.73048894e-02 -7.02551752e-03
+   3.38569194e-01  2.22570762e-01  3.44512582e-01  2.37390790e-02
+  -6.99859113e-02]
+ [ 2.85438299e-02  1.63325712e-01 -1.25102103e-01 -5.71535144e-04
+   2.70524204e-01 -1.09184779e-01 -4.58023638e-01 -6.22052103e-02
+  -2.55683154e-01]
+ [-1.16869807e-02  7.11250082e-02 -2.33704612e-01 -4.18554014e-03
+   1.28424332e-01 -2.93822736e-01  1.67507172e-01  2.12358609e-01
+   1.55061454e-01]
+ [-3.74243736e-01 -8.91984627e-02  1.05746649e-01 -1.41920865e-01
+  -1.10063687e-01  4.56926003e-02  3.20269495e-01 -1.03381224e-01
+   1.66757688e-01]
+ [ 3.12768519e-01 -1.46109030e-01 -2.31112484e-02 -7.71536166e-03
+   2.17840269e-01 -2.32981890e-01  2.43008547e-02  7.52382800e-02
+   1.64958879e-01]
+ [ 1.85878560e-01 -5.94790220e-01 -1.00872613e-01  1.45128846e-01
+  -3.16995829e-01  2.37935632e-01 -1.48680255e-01  2.68882841e-01
+   2.23617241e-01]
+ [-1.05027713e-01  3.74952018e-01  1.92773074e-01 -4.75705981e-01
+   1.14061095e-01 -1.61232695e-01 -3.40415649e-02  1.51419848e-01
+   1.47479355e-01]
+ [-2.51603812e-01  1.79811567e-01 -2.14084193e-01 -5.39403141e-01
+  -1.35993138e-01 -1.00897893e-01  1.34578735e-01 -4.14032936e-02
+   4.67331946e-01]
+ [-2.24635854e-01  1.81928445e-02 -1.76614866e-01 -1.57658875e-01
+  -5.86777776e-02  2.69445568e-01  1.60872415e-01  2.80985013e-02
+   1.95674554e-01]
+ [-2.46393278e-01 -3.49498451e-01 -1.18880495e-01  3.19660157e-01
+   2.23613754e-01 -4.80861783e-01  2.24682599e-01  9.24365744e-02
+  -1.71523690e-01]
+ [-8.44030231e-02  2.68249393e-01  1.44989612e-02 -2.42481172e-01
+  -3.03772360e-01 -2.21452132e-01 -9.76933762e-02  5.44057667e-01
+   2.01210052e-01]
+ [ 4.62136827e-02  2.88542479e-01 -2.35860229e-01  6.23897552e-01
+  -4.55019504e-01 -2.53890574e-01 -3.77971083e-02  1.33136407e-01
+  -3.71406227e-01]
+ [-1.45172372e-01  2.07613438e-01 -1.09884433e-01 -1.90541640e-01
+   3.66740584e-01  1.37728915e-01  2.57098451e-02  2.98796713e-01
+  -2.16938943e-01]
+ [-2.92275220e-01 -3.02461922e-01  9.18188244e-02 -3.49159390e-01
+  -5.86712122e-01 -4.47557643e-02  2.89031386e-01  4.23088484e-02
+   3.75708878e-01]]</t>
+  </si>
+  <si>
+    <t>[[ 1.83640867e-01  6.62559688e-01 -6.06322944e-01  5.12862951e-03
+   3.04008961e-01 -2.46683836e-01  2.75228500e-01 -3.71260643e-01
+  -1.36573553e-01  4.65490043e-01]
+ [-1.31651282e-01  5.25448442e-01  2.42069826e-01  1.99756503e-01
+  -6.44451529e-02  2.66079724e-01  2.84210563e-01 -3.14984173e-01
+   3.09347719e-01  7.20085800e-01]
+ [-3.39110553e-01  1.10132657e-01  1.21914327e-01 -2.98913360e-01
+  -3.05442572e-01  2.89538801e-01 -4.12919939e-01 -2.76969373e-01
+   5.69161832e-01  1.12307839e-01]
+ [-3.75092328e-01 -5.09478092e-01 -7.82833472e-02  1.23741597e-01
+   4.17774826e-01  2.98329204e-01  4.78532426e-02  2.57041425e-01
+  -3.05614561e-01  5.07352017e-02]
+ [ 1.47131518e-01 -6.68652207e-02 -1.86090649e-03 -2.55364835e-01
+  -1.72101945e-01 -1.32998809e-01 -3.32561076e-01 -2.56402165e-01
+  -2.05580682e-01 -2.51619726e-01]
+ [-7.45708048e-02  5.67430668e-02 -1.44166782e-01  6.84940815e-02
+   1.90685585e-01  3.48930317e-03 -1.08233757e-01  2.26636603e-01
+  -3.41189682e-01  2.89293319e-01]
+ [ 4.13002670e-01 -4.31667060e-01 -1.42105386e-01 -2.43772015e-01
+   3.62552762e-01 -5.13241701e-02 -2.63985693e-02  2.79451042e-01
+  -3.92747521e-01 -2.49340922e-01]
+ [-1.63686067e-01 -3.07948768e-01 -2.01057106e-01 -1.43093839e-01
+  -3.32541853e-01 -8.37647170e-02 -2.34071463e-01 -1.04397118e-01
+   1.38946086e-01 -9.81619209e-02]
+ [ 3.47463012e-01 -1.85341835e-01  7.79180527e-02 -4.08121675e-01
+   5.26693881e-01  4.43693519e-01  5.69335297e-02  2.48844042e-01
+  -1.46589875e-01 -1.23013094e-01]
+ [-2.91070417e-02 -1.33193091e-01  1.67888299e-01 -4.14584219e-01
+  -1.38302729e-01 -7.35475644e-02 -3.98642659e-01 -3.31173509e-01
+   2.94205159e-01 -6.43858090e-02]
+ [ 2.98227400e-01  8.80794302e-02 -2.63022304e-01  2.44161636e-02
+  -4.96025532e-01  2.90519893e-02  1.48652911e-01  1.53761700e-01
+  -2.09455580e-01 -7.27975309e-01]
+ [-2.36534819e-01  5.18141806e-01  4.64783609e-02 -3.74988168e-01
+  -2.54343837e-01 -1.66276470e-01 -1.57403454e-01  2.23816127e-01
+  -2.79600620e-02 -4.95694131e-01]
+ [ 2.83659220e-01 -1.79455653e-02 -8.33049938e-02 -2.43555397e-01
+   3.22520673e-01  3.87293130e-01  3.04127008e-01 -1.18968770e-01
+  -2.35802367e-01 -3.61581147e-01]
+ [-2.46639386e-01  1.09554447e-01 -2.48943698e-02 -1.10407561e-01
+   1.00701287e-01 -1.45289347e-01 -5.26622951e-01  6.38064295e-02
+  -2.59354979e-01 -1.50505960e-01]
+ [ 8.59303772e-02  2.90626407e-01  2.30200887e-01 -1.56357557e-01
+  -1.95735723e-01 -2.08598554e-01 -1.18518598e-01  2.31304243e-01
+  -4.95534509e-01 -7.94525146e-02]
+ [ 2.47264862e-01  2.30265304e-01  1.61119685e-01  2.47850999e-01
+   1.99164346e-01  4.91891988e-05 -6.57726586e-01 -3.79851729e-01
+  -9.53947976e-02 -4.95084189e-02]
+ [ 1.46909192e-01  4.67116535e-02  1.35716377e-02 -1.39219603e-02
+   3.37750912e-01  1.21343613e-01  2.89523244e-01 -1.07354306e-01
+  -5.22883944e-02 -9.82186198e-02]
+ [ 2.88526624e-01 -7.49365866e-01 -1.46849155e-01  1.15494177e-01
+  -1.12235628e-01 -2.41326585e-01 -1.70375228e-01 -1.29622221e-01
+  -2.60866955e-02  4.60774511e-01]
+ [-1.52422726e-01 -2.84010619e-01  3.71140391e-01  3.49186748e-01
+  -1.61941677e-01  2.44284093e-01  4.02048677e-01 -5.39747849e-02
+  -6.46497980e-02  7.08235055e-02]
+ [-2.75224894e-01 -5.74450083e-02 -2.59710312e-01  1.73275292e-01
+   1.88740730e-01  2.75215060e-01  3.70687515e-01  6.37563644e-04
+  -2.02180162e-01  3.63080949e-01]
+ [-1.91972535e-02  1.94477320e-01  2.09610965e-02 -1.46566704e-01
+   4.73532546e-03  1.59316957e-01 -3.20934772e-01  1.68636084e-01
+   1.31184906e-02 -2.31891543e-01]
+ [-3.03600818e-01 -2.40303114e-01  4.49659452e-02 -3.75979394e-02
+   1.35795875e-02 -1.47496775e-01 -2.25865841e-01 -5.48183396e-02
+  -3.78144264e-01 -1.69307902e-01]
+ [-9.96957272e-02 -5.66399336e-01 -8.92082751e-02 -1.69266373e-01
+   4.17548448e-01 -2.61930525e-01 -2.83646315e-01  3.09408069e-01
+   1.59807935e-01  3.51530880e-01]
+ [-4.20266762e-02  2.56634951e-01 -2.14306731e-03 -1.16324179e-01
+   1.94691151e-01  1.77173123e-01 -3.32347304e-02  4.83881421e-02
+  -4.28821564e-01  3.26285899e-01]
+ [ 2.56198257e-01  1.24278195e-01  4.16104764e-01 -3.04682553e-01
+   1.15012564e-01  2.26344123e-01 -2.26300001e-01  2.38341123e-01
+  -4.70997132e-02 -1.17411606e-01]
+ [-2.18363762e-01 -2.16712400e-01 -1.98294949e-02 -2.00510576e-01
+  -4.04619455e-01 -3.65442902e-01  4.48829234e-01  4.95829508e-02
+  -5.04837856e-02 -4.13793027e-01]
+ [ 3.21446717e-01 -5.73260635e-02  1.59657657e-01  2.29286961e-02
+   1.27492324e-01 -4.17269468e-01 -3.21692258e-01  8.30247700e-02
+  -1.25049055e-01  3.62891257e-01]
+ [ 7.98662081e-02 -1.62559181e-01  2.54356295e-01  1.64489135e-01
+  -2.60347873e-01 -2.23741502e-01  1.37423873e-01 -4.58470397e-02
+   2.93848962e-01 -2.87991762e-01]
+ [-1.79741338e-01  7.87782297e-03 -1.78331658e-01  1.68668270e-01
+  -1.82727620e-01 -6.83764443e-02 -7.85756037e-02  1.39772326e-01
+   2.20291205e-02 -8.05246294e-01]
+ [-1.73670262e-01 -3.02971423e-01 -9.26683992e-02 -1.04505695e-01
+  -5.04195839e-02 -1.15271077e-01  3.17241490e-01 -3.98102045e-01
+   7.40488544e-02 -4.55462486e-01]
+ [-1.77304298e-01  4.39122587e-01 -1.73161268e-01 -1.05444774e-01
+  -2.59244442e-01  1.48679391e-01  3.34521323e-01  1.43130377e-01
+   7.63562471e-02 -6.09454155e-01]
+ [-1.07601255e-01  6.01060748e-01 -3.15905690e-01 -1.01067470e-02
+  -1.82786062e-01  2.72086084e-01  3.36128473e-02  1.59970731e-01
+  -5.78260012e-02 -4.02031898e-01]
+ [ 6.01059616e-01 -3.69653165e-01 -1.78972289e-01  1.46284029e-01
+   2.83036113e-01 -1.58173755e-01  9.51907784e-02  1.37439474e-01
+   2.27364808e-01 -1.18563265e-01]
+ [-3.82309496e-01  2.09613428e-01 -4.42961678e-02 -1.11219212e-01
+  -1.46737754e-01  2.63400912e-01  4.09072995e-01 -4.53010648e-01
+  -5.60392998e-02 -1.78936794e-01]]</t>
+  </si>
+  <si>
+    <t>[[-0.22475494  0.12109025 -0.47888434 -0.33288586  0.58637035  0.32008842
+  -0.2743692   0.00636145 -0.11169909  0.15063544  0.37739766]
+ [-0.09275296  0.19690268  0.46212044 -0.00835889  0.23753202 -0.5423076
+  -0.136567   -0.0974497  -0.05540224  0.03587807  0.31911322]
+ [ 0.10513437 -0.10979597  0.2649036   0.3259282  -0.2425297  -0.41544086
+  -0.04357335  0.10180412 -0.18071033  0.20462129  0.22455826]
+ [ 0.23374052  0.04715808 -0.25334278 -0.03420081  0.01807172 -0.31425452
+   0.19217424  0.14024802 -0.37197095  0.4488698   0.15582344]
+ [-0.1291384  -0.04861621 -0.23626678  0.02338386 -0.11764766  0.24350627
+   0.0254469  -0.40067467 -0.00607272 -0.10173444  0.15818697]
+ [-0.2735213   0.2947597  -0.07987399  0.09205873  0.1271343   0.11105783
+   0.00924275  0.18240935  0.24743526 -0.38407615 -0.1483847 ]
+ [ 0.2326657   0.04460366  0.00723736  0.29871103 -0.21959947  0.0388011
+  -0.12762524 -0.18865176 -0.4263601   0.50234663  0.32611963]
+ [-0.16078585  0.28300488  0.08919036  0.04505485 -0.14762    -0.01126547
+   0.15371059  0.05924685  0.0139952   0.35029998  0.06870624]
+ [-0.28909576 -0.10748344  0.032771    0.18376598  0.21852982  0.02203096
+   0.25272763  0.5423389   0.02127261  0.13489264 -0.11790492]
+ [ 0.5376444  -0.05204592 -0.50929886  0.08342567  0.38758054 -0.3758666
+   0.18827412 -0.35484338 -0.11190917 -0.06580991 -0.05570745]
+ [ 0.29416078  0.10174118 -0.21179697 -0.05791885 -0.2294794  -0.09375969
+   0.1922374  -0.24702947 -0.33516416 -0.2745024  -0.10514531]
+ [-0.15909094  0.36686182 -0.19941983  0.10634396 -0.27498707 -0.16908538
+  -0.21087709  0.14555036 -0.02483098 -0.04146732 -0.01171344]
+ [-0.29048705  0.3165801  -0.19487295 -0.10542402  0.24034823  0.34164315
+  -0.4393497   0.5294872   0.13994914 -0.016555   -0.1336236 ]
+ [-0.06017195 -0.18894687  0.15986258 -0.27034292  0.47011444  0.1937598
+  -0.07783497  0.15411986 -0.23405235 -0.34565035  0.07730006]
+ [-0.00066316 -0.13483971 -0.03323648  0.13012868 -0.4584155  -0.15263288
+   0.3338589   0.3310213   0.21128772 -0.07918356  0.251615  ]
+ [-0.07735147 -0.01410935  0.26663062 -0.1716649   0.1981674   0.13900705
+  -0.22836742 -0.14676015 -0.34590185  0.36364973 -0.28193915]
+ [ 0.3514759   0.2960874  -0.10601237  0.16901767  0.11086017 -0.18855882
+  -0.2815911  -0.5840387  -0.19769534 -0.04857983  0.17396551]
+ [ 0.35226873 -0.09804521  0.03508621 -0.19307873  0.26025274  0.5363084
+  -0.4472006   0.42492083  0.544862    0.24942455 -0.43208775]
+ [ 0.48927438 -0.46565667 -0.07968248 -0.10579582 -0.04089282 -0.05086263
+   0.22844666 -0.06744213  0.06879977 -0.10045097 -0.14018872]
+ [-0.41743004 -0.03783191 -0.16653797  0.00280179 -0.2623533   0.10089478
+  -0.3383673   0.01263694  0.20494516 -0.03641794 -0.07243012]
+ [ 0.39095053 -0.18243088 -0.32889745  0.02480017  0.16296324 -0.5692171
+   0.00932449  0.0351655  -0.03697727 -0.07212847 -0.31337807]
+ [ 0.33724427 -0.41951746  0.32441637 -0.05875986  0.15580057 -0.3099777
+   0.36763242  0.06074095 -0.01448504 -0.06395306  0.16618578]
+ [-0.5511176   0.09911595 -0.3415491   0.18063161  0.22014485  0.17271294
+   0.20749943  0.19636185  0.0421544   0.06969045 -0.24101408]
+ [ 0.036336   -0.2598966  -0.40955046 -0.18337333 -0.518793    0.03277819
+  -0.03552688  0.18382013  0.09826335 -0.08329452  0.09738196]
+ [-0.05238622 -0.38439766 -0.01001611  0.3987257   0.12229875  0.2522666
+  -0.21177016 -0.22960615  0.01405768  0.07093162 -0.21074952]
+ [ 0.04170109  0.35694817 -0.3749557   0.2744598  -0.2239178   0.26491642
+  -0.20998998  0.10268901  0.24159564 -0.3323876   0.34115338]
+ [-0.5094195  -0.25641042  0.06288656 -0.00693849  0.42342493  0.22023961
+   0.31863225  0.0416661  -0.00457164  0.0028522   0.14071421]
+ [-0.27731347 -0.39044762  0.16099083 -0.00764883 -0.29547054  0.48368165
+  -0.01843734  0.31335053  0.20248517 -0.07137164  0.10063466]
+ [-0.02523299  0.29461613  0.57119584 -0.15686606 -0.4962737  -0.53695923
+  -0.21321863 -0.08824742 -0.03722794 -0.16118336 -0.18379952]
+ [ 0.16480513  0.23568574 -0.1310065  -0.1694775  -0.04603582 -0.24973537
+   0.06091684 -0.3254913   0.10047313 -0.043669   -0.5575985 ]
+ [-0.21464558 -0.2774188  -0.140458    0.22890127 -0.0019166  -0.10426497
+  -0.10041566  0.174358   -0.21161807 -0.24736442  0.21128471]
+ [ 0.3161202  -0.12040501 -0.32956505 -0.0898878  -0.31090704 -0.03261488
+   0.16487688 -0.11926307 -0.08494039  0.25790825  0.0227977 ]
+ [ 0.03223826 -0.36156914  0.43823397 -0.37742954  0.04650108  0.1677696
+  -0.6084302  -0.0731114  -0.00174157 -0.01663958 -0.278183  ]
+ [-0.3515888   0.3887818  -0.06205005 -0.18691362  0.0798512  -0.21605648
+   0.33206537  0.5368978   0.3918592  -0.1780979  -0.2305927 ]]</t>
+  </si>
+  <si>
+    <t>[[ 0.33142745 -0.2698069   0.74574256 -0.07528494  0.3886885   0.25012434
+  -0.05895941 -0.51160383  0.02460064  0.63375604  0.29419425 -0.05687379]
+ [ 0.04822583 -0.30535337  0.42747673 -0.13924246  0.1811205  -0.05037437
+   0.38526213  0.12832499  0.08820538 -0.18903892  0.30585787 -0.05322253]
+ [ 0.21694092 -0.48733193 -0.00775301  0.460708    0.17070624 -0.66062355
+  -0.2050424  -0.04445979 -0.06097145 -0.06370515  0.0698572  -0.00468474]
+ [ 0.34154227  0.11535035 -0.00964665 -0.20746768 -0.12727097 -0.1836581
+   0.33891866 -0.33687514 -0.07509629 -0.2845968   0.18664078  0.1509401 ]
+ [-0.10505705  0.11934389 -0.03187649  0.15880513  0.1411033   0.16513932
+  -0.14862457  0.2845552   0.09740987  0.36568713 -0.09973226 -0.00517024]
+ [ 0.04192287  0.19022913  0.3393584  -0.21588898 -0.54442525 -0.02561652
+  -0.21949986 -0.07370795 -0.11382477  0.25549543  0.38974822 -0.3793238 ]
+ [-0.1269548  -0.26459795 -0.22225574  0.14874442  0.35919842 -0.00561584
+   0.31455886 -0.03156107 -0.00138731 -0.16999526 -0.36581245 -0.33666557]
+ [-0.07471328 -0.21447241 -0.42038342  0.12715372 -0.45303935  0.0981426
+   0.14915146  0.05761924  0.23618928 -0.32273915  0.21425301  0.1990905 ]
+ [-0.18674436 -0.14899954 -0.1404176  -0.33917373 -0.19658037  0.32652256
+  -0.01773828 -0.02193168 -0.12151951  0.45167637  0.6451443   0.21085764]
+ [-0.01086894 -0.03966004 -0.16936003 -0.13438162 -0.13915972  0.00912565
+   0.08964787  0.1051317   0.3037918   0.14864665 -0.06569835 -0.29064175]
+ [-0.44549388  0.14433174 -0.16000365  0.27816784  0.1841455   0.08415229
+  -0.01176383  0.2844018   0.01504014  0.1176442  -0.06461593 -0.22251594]
+ [-0.23051801 -0.29547158  0.4324195   0.28450415 -0.08623284 -0.16424409
+   0.0614785   0.1860102   0.01886355  0.36455274  0.03999277 -0.32191584]
+ [-0.09325406 -0.11022919  0.15873794  0.18689318  0.44493362 -0.26933354
+  -0.00250277 -0.19445872 -0.0852475   0.3146988  -0.10380388 -0.12767981]
+ [ 0.1438734  -0.27320245  0.04936127 -0.0960203  -0.4325904   0.65650165
+  -0.2395221   0.29896656  0.17502224 -0.4365898   0.10613819 -0.14469561]
+ [-0.09325109  0.26629803  0.1486346   0.1710228  -0.06410807  0.33444217
+   0.04175912  0.14946494  0.2746492  -0.16741896 -0.10586272  0.23670545]
+ [ 0.45956746 -0.11326812 -0.1430557   0.17415762 -0.5806331  -0.43175715
+   0.01004016 -0.10421354 -0.0300461  -0.14947173  0.3262859  -0.20235372]
+ [-0.14308499 -0.12311137  0.01285121 -0.17597194  0.11721498  0.2675277
+  -0.08511599  0.24246153  0.06828074  0.6403335  -0.09412549 -0.2918648 ]
+ [-0.08524626  0.19947024  0.03149242 -0.18075463  0.19840686  0.3086748
+   0.28513455 -0.19070956 -0.60982376  0.14392538  0.18024375 -0.09875278]
+ [-0.18992202  0.03738389 -0.05538935  0.28649476  0.19232279  0.46438065
+  -0.23347966  0.3569272  -0.5451345  -0.1518699  -0.26687723 -0.09300379]
+ [ 0.08546376  0.3572702  -0.18572293  0.2062855  -0.17113854  0.45670956
+  -0.620085    0.08644702  0.12500009 -0.01636715 -0.08020751 -0.11193871]
+ [-0.11151712  0.06195689 -0.17153487  0.08711417  0.07412226  0.14506201
+   0.25184464 -0.11092978 -0.18889442  0.46979064  0.07039225 -0.0418672 ]
+ [ 0.29397377 -0.18452398 -0.18776354  0.15440178 -0.09385727  0.2184435
+  -0.03992448 -0.07573876 -0.12805046 -0.12720418 -0.42719632  0.3622022 ]
+ [-0.03479888 -0.06824251 -0.0842207  -0.3549842   0.29523525 -0.00419922
+   0.35430586 -0.06708184 -0.26878804  0.21683368 -0.0105319  -0.09903948]
+ [ 0.2201661   0.1912488  -0.23734888  0.30036482  0.3047803   0.22739069
+   0.32961604 -0.27124897 -0.0385414  -0.31738293 -0.09571001  0.1792066 ]
+ [ 0.09704934 -0.30561247 -0.22744228  0.20455886  0.00970279  0.11785476
+  -0.21077518  0.41002244  0.01663976 -0.47355235  0.04485234  0.33734432]
+ [-0.09321459  0.12308057 -0.27757233  0.34720215 -0.20454478 -0.06123625
+  -0.13324712  0.2467067   0.16507338 -0.16449842 -0.4207396  -0.35044414]
+ [ 0.09908754 -0.05842536  0.12266731  0.00478528  0.16916496  0.3169021
+   0.36425197  0.01113134 -0.2058479  -0.03977757  0.14400715  0.3520794 ]
+ [-0.116268    0.18553846 -0.08231317  0.08979218 -0.01729895  0.37365985
+  -0.24952349 -0.02000174 -0.14027688 -0.13544218 -0.17329156  0.06801969]
+ [-0.06624506 -0.5001317   0.08598635  0.29747465 -0.5347466  -0.14058541
+   0.18901658  0.00651963  0.08262551  0.12528001 -0.43720973  0.2283717 ]
+ [-0.1388732  -0.30133158 -0.25162193  0.08055194  0.20044148  0.14008668
+   0.1749262  -0.3200093  -0.22560549 -0.08165473 -0.3577623  -0.3953773 ]
+ [-0.23887855 -0.0855136   0.09730066 -0.04492332  0.32587418 -0.29557773
+  -0.22887973 -0.15676387 -0.01098488  0.21182637  0.12706302 -0.3819772 ]
+ [-0.4545812   0.16517425  0.09515361 -0.02339566 -0.6269156  -0.2831469
+   0.61478096 -0.02719331  0.17171994  0.21982706  0.14008151 -0.00911078]
+ [-0.24261646 -0.3253469  -0.18572104 -0.04595256  0.44635203 -0.36258668
+  -0.1825615  -0.08633877  0.04650147 -0.12272381  0.00342709  0.16905272]
+ [-0.39270014 -0.10831393  0.64384586  0.05071686  0.17810169  0.00625974
+  -0.293893   -0.5389033  -0.03973214  0.42337435 -0.4256206   0.2845174 ]]</t>
+  </si>
+  <si>
+    <t>[[ 0.2626875  -0.2584056  -0.48013535  0.47649086  0.11902749  0.4034658
+   0.12142628 -0.34253758 -0.00688698 -0.20211796  0.47092512 -0.722587
+  -0.04259953]
+ [ 0.11402661  0.35713208 -0.06143154  0.05449303 -0.03300858 -0.44810677
+   0.46058068 -0.05994193 -0.23415725 -0.3897909  -0.47566128 -0.14815906
+  -0.19881019]
+ [-0.37664038  0.17644083  0.05850803 -0.02877671 -0.01259029  0.13982071
+   0.13534273  0.03912309 -0.35601452  0.33213955 -0.12365267 -0.06918288
+  -0.52378285]
+ [-0.07395309 -0.03529184 -0.09192501 -0.27941707 -0.17024562  0.19063273
+   0.03228468  0.06474826 -0.02601839  0.15290707 -0.25586152 -0.07466166
+  -0.1235616 ]
+ [-0.10730237 -0.13137712  0.34637973 -0.04191948 -0.3289437   0.01251939
+   0.14633684  0.15918957 -0.23036204 -0.26747537  0.2544619   0.3213691
+  -0.14845905]
+ [-0.05493319  0.30947688 -0.00511715  0.14701416 -0.24233022  0.05025495
+  -0.01251528  0.32785138  0.22966336  0.22662984  0.19488683 -0.29835618
+   0.03989097]
+ [ 0.06700678  0.07353032 -0.39712766 -0.10531268 -0.22948413 -0.2644876
+  -0.12265116  0.15323488  0.30129603 -0.01969457  0.29612347 -0.55308706
+   0.27872407]
+ [-0.37538242 -0.00474445  0.1856728  -0.07897536  0.19111474 -0.21651368
+  -0.0593847  -0.02156562  0.20489092 -0.35289678 -0.05118864 -0.09395078
+  -0.40271103]
+ [-0.08040868 -0.13176851  0.03471015 -0.09422196  0.00545484  0.16460867
+   0.22054935  0.18838406 -0.3570295  -0.15759917  0.06798866  0.11893167
+  -0.02571822]
+ [-0.03579755  0.02406637 -0.30549127 -0.2412102  -0.18917343 -0.1831345
+   0.5481393   0.4355682  -0.0630553  -0.02112621  0.22786914 -0.6524446
+   0.34824342]
+ [-0.07320409  0.42686987  0.01515512 -0.25800025  0.15022764 -0.15331891
+  -0.22242613 -0.09496173 -0.07726216 -0.03106006  0.03181738 -0.12627563
+   0.14102605]
+ [ 0.02435235  0.11590707 -0.40924326  0.06689632  0.15437287  0.5086092
+  -0.12933853  0.09957335 -0.0967947  -0.30370945 -0.20650046 -0.02439171
+   0.29680312]
+ [ 0.19400974 -0.0146646   0.1089821   0.13268493 -0.26788577  0.03955709
+   0.16845979  0.03062209 -0.34619156  0.2536431  -0.09140062 -0.01909279
+  -0.10389531]
+ [-0.02534845 -0.20652075  0.07464613  0.13909213  0.3799468  -0.2671763
+  -0.16241966  0.11861365 -0.0043474   0.12982206  0.41587752  0.15804334
+  -0.05425112]
+ [-0.07547528  0.01632746 -0.0344902   0.2314544   0.07205576  0.15747604
+  -0.37670472  0.05104307  0.27787822  0.29671636  0.30395555  0.17240903
+   0.17604265]
+ [ 0.2042214  -0.07301411 -0.261737   -0.14605956 -0.16962229  0.27358764
+  -0.04329778 -0.02638033  0.04277368 -0.06152386 -0.30805323  0.20801257
+   0.11613145]
+ [-0.06782933 -0.07950094 -0.04038238 -0.08993063  0.07359225  0.23071755
+  -0.12912343 -0.06345317  0.40766895  0.11677095  0.26943433 -0.25481638
+  -0.08885573]
+ [ 0.29624683  0.06519056 -0.22633332  0.15104015  0.43940687 -0.36103088
+   0.15653051  0.09577584 -0.28996146  0.13527349 -0.06693426  0.03672247
+   0.5011001 ]
+ [ 0.23520502  0.2148286  -0.10947233  0.25684586 -0.29598776 -0.24364747
+   0.19887583  0.19285585 -0.4810312   0.38820052 -0.13570626  0.16846609
+  -0.00662547]
+ [ 0.32223377 -0.06910956  0.39732447  0.02210266 -0.05470339  0.20061831
+  -0.01219978 -0.2864635   0.34318134  0.23492622 -0.01547304 -0.16042128
+  -0.31006992]
+ [-0.22745131 -0.31944352 -0.20141381  0.15333238  0.0805276   0.15289788
+  -0.3349492   0.00351929 -0.21565224  0.26597401 -0.15140425  0.29988948
+   0.06497953]
+ [-0.64298856  0.33696762  0.07497587 -0.16082992 -0.1426387  -0.24838577
+   0.10181659 -0.45632148 -0.37485018  0.06307738 -0.1319483   0.19699995
+  -0.28267378]
+ [-0.17472576 -0.23694296  0.12604292  0.13289885 -0.4589837  -0.06088913
+   0.0627161   0.06422137  0.2299258   0.0796807   0.06905781  0.38564742
+   0.14726551]
+ [-0.04189137 -0.02586691  0.43601632  0.12001851  0.37241134 -0.03793682
+   0.10060217 -0.45874533 -0.23512068 -0.23211834  0.00201055  0.07628433
+   0.39465326]
+ [-0.2672124   0.05136669 -0.42385706 -0.24052346 -0.12707031 -0.39045683
+  -0.11269096  0.3508111   0.2242518  -0.30320165  0.01308804  0.2633412
+  -0.13563102]
+ [ 0.25866756  0.08110363 -0.21152872 -0.32272518  0.13003981  0.45625186
+  -0.16436794  0.22068287 -0.31528375 -0.3793643  -0.28545776 -0.23766777
+  -0.29232848]
+ [ 0.04862266 -0.03094784  0.32958224  0.2614039   0.2423204  -0.52990323
+   0.0082955  -0.16690108  0.03320643 -0.44092748  0.23325041  0.0251313
+   0.48862863]
+ [-0.0674878   0.14019278  0.19442971 -0.02507112  0.0198813  -0.07061253
+  -0.19437832 -0.4294685  -0.36619276 -0.07685762  0.15643953  0.470063
+  -0.06509636]
+ [-0.06435006 -0.12223871  0.05733913 -0.22886805  0.31894028  0.08110644
+   0.14056587  0.04998048 -0.00662414 -0.15099755  0.08401202 -0.03630092
+   0.06288124]
+ [ 0.2804946   0.07206677 -0.40914845 -0.07793206 -0.3187803   0.04940533
+  -0.09033328 -0.32872915 -0.15923633 -0.15884058 -0.48699215  0.10089067
+  -0.27794567]
+ [ 0.1494326   0.08967965  0.1200323  -0.05791108 -0.43863276 -0.23639451
+   0.38612986  0.04584389 -0.03728723 -0.2547543  -0.5530529   0.1293123
+  -0.34097752]
+ [ 0.15506072 -0.1720501  -0.34461725 -0.30443382 -0.13746357  0.5517922
+  -0.32513425  0.35723302 -0.03967625 -0.01423208 -0.4002373   0.09134269
+  -0.06694869]
+ [-0.13037734 -0.08328315  0.18447843  0.13515435 -0.1412131  -0.14788531
+  -0.16717562 -0.3815309  -0.24452168  0.3503899   0.19565608  0.14652148
+   0.19822113]
+ [-0.27102253 -0.52165604  0.23685758  0.2774305   0.00659521 -0.22714369
+  -0.26047155 -0.32808107 -0.2569179  -0.13354695 -0.28561252 -0.04275043
+  -0.03401183]]</t>
+  </si>
+  <si>
+    <t>[[-1.10683948e-01 -3.52852613e-01  2.63091087e-01 -1.47947669e-02
+  -1.37400717e-01 -5.19849658e-01  1.34157464e-01 -1.43521681e-01
+   2.71080464e-01  2.37253442e-01 -4.17820543e-01 -3.22468609e-01
+   2.15191931e-01 -5.48710883e-01]
+ [ 4.82525855e-01  3.89672130e-01  3.48263085e-01 -7.62230158e-02
+   3.30571085e-01 -4.01167154e-01  1.52604878e-01  1.12811208e-01
+  -1.85162529e-01 -2.76705354e-01  2.65038282e-01 -2.54888296e-01
+   2.33038113e-01  1.22105941e-01]
+ [ 7.70632038e-03  1.21449307e-01  6.59683496e-02 -7.25630164e-01
+   1.97572529e-01  7.91638643e-02  1.80884823e-01 -2.45878816e-01
+  -6.38923645e-02 -2.26539653e-02 -1.89065844e-01 -4.16802138e-01
+   6.98550791e-02 -9.20068920e-02]
+ [-2.53565043e-01  3.07535112e-01  2.42333766e-02 -7.53996968e-02
+  -1.88127548e-01 -1.03053905e-01 -2.49980837e-01  1.46979392e-02
+   2.49612987e-01  3.04246116e-02  2.80010283e-01  3.15763921e-01
+  -3.21342558e-01  1.66726932e-01]
+ [ 1.42289966e-01 -2.79641449e-01  9.03387442e-02 -1.67050771e-02
+   3.66132319e-01 -3.53427559e-01 -7.52497166e-02 -2.67196298e-01
+  -2.86069840e-01  8.85624252e-03 -3.61114368e-02 -7.95109104e-03
+  -2.56903172e-01 -1.72519013e-01]
+ [ 1.89537287e-01  2.75550574e-01 -8.81289989e-02 -1.76163062e-01
+   2.72054523e-01 -2.46897653e-01 -6.97917491e-02 -1.94194302e-01
+   3.48373741e-01  1.10049933e-01 -2.86617726e-01  1.52660012e-01
+   1.11239783e-01 -4.93544005e-02]
+ [-5.31006604e-02  9.82851908e-02  1.85776457e-01  5.62809668e-02
+   2.44339317e-01 -1.59997731e-01  1.66756332e-01 -6.80478960e-02
+  -3.29675168e-01 -3.30617398e-01 -3.48425984e-01  2.71141022e-01
+   4.23267335e-01 -1.85165897e-01]
+ [-6.99096859e-01 -2.16458857e-01 -7.04163685e-02 -4.50911224e-01
+  -1.65453807e-01  7.27708489e-02 -5.19856364e-02  2.01034904e-01
+  -3.01521569e-01  1.36320308e-01 -9.04272944e-02 -1.42715946e-01
+   3.06439489e-01  3.31241637e-01]
+ [-4.07215953e-01  1.65287808e-01  1.57800689e-01  1.36389043e-02
+  -3.36351544e-01  3.36251676e-01 -3.85988176e-01  2.42614239e-01
+   3.15841228e-01 -2.08556965e-01  1.99859023e-01 -4.03248936e-01
+   3.10653776e-01 -5.95883071e-01]
+ [-4.49076891e-02  8.10009763e-02  1.72697142e-01  1.62192807e-01
+   1.81018546e-01 -1.08383961e-01  2.93112576e-01 -1.65894210e-01
+  -2.00111210e-01  3.49116355e-01  1.03915021e-01  7.48921931e-02
+  -2.38721579e-01 -3.57079595e-01]
+ [-3.93553257e-01 -2.72996817e-02 -2.13453338e-01  2.42993742e-01
+   3.20240498e-01 -2.30354648e-02 -1.76276848e-01 -1.64807156e-01
+   1.42962823e-03  1.94183335e-01  2.69085653e-02  8.83587226e-02
+  -1.87261268e-01 -2.83252299e-01]
+ [ 2.98725218e-01  1.16365127e-01 -8.36091349e-04 -2.31647268e-01
+   8.39673504e-02  6.57083094e-02 -2.59967923e-01 -8.61763489e-03
+   3.27406734e-01 -3.02385032e-01 -2.66768545e-01  5.40244728e-02
+   5.13237193e-02  2.08930343e-01]
+ [-2.00526953e-01  1.18489616e-01  2.32022256e-02 -6.33987486e-02
+   3.85814160e-01  4.52057332e-01 -4.52801287e-01  1.71064526e-01
+   1.52801305e-01 -4.33961987e-01 -3.83010596e-01 -5.74008226e-02
+  -3.87206487e-02 -1.73704803e-01]
+ [-9.68139917e-02  4.73541975e-01 -2.27846682e-01  2.15352237e-01
+  -4.34263915e-01  3.40948969e-01 -1.56748772e-01  5.16512096e-01
+   1.77301288e-01  1.01132639e-01 -9.55190137e-02 -1.96561068e-01
+   2.43780371e-02  1.65989473e-01]
+ [-5.38111180e-02 -1.52586520e-01  6.43874332e-02 -2.87576348e-01
+   4.70983908e-02  2.58729666e-01 -2.16587037e-01 -1.75499871e-01
+   2.58679032e-01 -1.83418542e-01  3.60666156e-01  2.96450853e-02
+   3.72896880e-01  1.56285465e-01]
+ [ 1.43454969e-01  3.65206748e-02 -5.05716912e-03 -1.06901051e-02
+   1.59661192e-02 -2.23644134e-02  2.37921849e-01 -1.34923950e-01
+  -4.80832681e-02  8.17284435e-02 -1.27187386e-01  8.71925205e-02
+   1.63054820e-02 -1.87575087e-01]
+ [ 1.02560148e-01 -3.09806556e-01  3.95583630e-01  2.85663102e-02
+   1.14919491e-01 -5.57668924e-01 -1.73739949e-03 -7.33449385e-02
+  -1.65044352e-01  6.00585788e-02  6.08563840e-01  9.86431390e-02
+   5.22404194e-01  3.17665517e-01]
+ [ 1.77685305e-01  2.67080814e-01  4.17078026e-02  7.25768059e-02
+   2.09403366e-01 -2.34739650e-02 -4.13453616e-02 -1.60258636e-01
+   6.97297305e-02  2.84034729e-01 -4.34215009e-01  2.96053506e-04
+   2.23277807e-01  1.16029137e-03]
+ [ 1.13246486e-01  4.52971250e-01  4.33617175e-01 -2.68573046e-01
+   2.17932239e-01 -2.70584645e-03 -3.86128157e-01  4.22193408e-01
+   1.73199009e-02  3.00178796e-01  4.75106567e-01  2.96320587e-01
+  -2.28594802e-02  2.88178384e-01]
+ [ 1.77874535e-01  3.98337543e-01 -2.12837309e-01 -1.81648508e-01
+  -5.95863104e-01 -1.97335660e-01  1.95067763e-01  2.77423471e-01
+   2.76613772e-01  6.05443865e-02 -2.31012121e-01  4.93608750e-02
+  -1.61759313e-02  1.50814280e-01]
+ [-1.64307386e-01 -4.51456219e-01  8.94635692e-02 -3.38253975e-01
+   8.01786780e-02  1.49996385e-01  3.12340349e-01 -2.11791515e-01
+   1.49914967e-02  3.65789622e-01  5.68905532e-01 -1.35049716e-01
+   2.50440687e-01  2.48018816e-01]
+ [-1.78336293e-01 -1.44417197e-01 -2.82878093e-02 -5.04844524e-02
+   1.87151596e-01 -1.71902888e-02  1.01010144e-01 -9.78125632e-02
+  -7.25897178e-02  2.16115862e-01  1.99396625e-01  3.89323733e-03
+  -3.78231704e-01  1.99962586e-01]
+ [ 4.00543064e-02 -2.56676286e-01  1.22336373e-01  3.35774690e-01
+  -1.20893806e-01  1.62032992e-01 -1.31874606e-01  2.10653797e-01
+  -3.11212510e-01 -2.13338107e-01 -1.24803692e-01  2.36812308e-01
+  -7.24104717e-02 -3.38785768e-01]
+ [-9.61160734e-02 -1.66466266e-01  2.67474115e-01 -2.67848894e-02
+   1.68798372e-01 -1.72394171e-01 -6.17866330e-02 -2.73865581e-01
+  -3.19901645e-01 -1.10251568e-01 -7.10151121e-02  1.61548913e-01
+  -3.21607351e-01 -4.69761699e-01]
+ [ 1.13280118e-01 -1.04898706e-01 -2.34186769e-01 -1.09713532e-01
+  -3.72906744e-01  2.59044409e-01 -1.33253047e-02 -6.91492021e-01
+  -2.45668337e-01  2.55045086e-01  2.69080907e-01 -1.13461494e-01
+   1.31344438e-01 -3.97675894e-02]
+ [ 1.35278285e-01 -4.00593728e-01 -8.61839578e-02  1.49083063e-01
+  -6.20121323e-02  3.93832803e-01  2.22508788e-01 -3.04127485e-02
+  -3.39464962e-01 -3.51453185e-01  4.16816920e-02  2.31384531e-01
+  -5.74323647e-02 -2.67296344e-01]
+ [-4.13012095e-02 -1.13156267e-01  5.90871386e-02 -7.24181160e-02
+  -1.71897694e-01  1.00542447e-02  3.20784152e-01 -1.02602676e-01
+  -4.15857524e-01 -2.38004234e-02 -8.25175457e-03  3.17992494e-02
+  -1.97051451e-01 -1.20286219e-01]
+ [-3.14444125e-01  2.44247794e-01 -2.96253532e-01  2.84954906e-01
+  -1.97110623e-01 -3.31904851e-02 -1.10367827e-01 -9.65059455e-03
+   2.16748029e-01 -3.35778922e-01  1.57865494e-01  7.34051540e-02
+  -1.03709422e-01  2.94954807e-01]
+ [ 1.28720939e-01  6.15985580e-02 -1.03211351e-01  4.29498971e-01
+  -9.43795890e-02 -3.94719720e-01 -3.86307031e-01 -2.57315546e-01
+   9.26994532e-03 -1.62560388e-01  1.57032564e-01 -3.21324132e-02
+   1.71376958e-01 -7.49260187e-02]
+ [ 2.02437222e-01 -2.14599088e-01 -2.75337487e-01  1.13299325e-01
+   5.99638633e-02 -3.78220975e-01 -5.01260221e-01  3.02510619e-01
+  -2.19770432e-01 -2.41376609e-01 -1.87406227e-01 -5.36191225e-01
+   3.04271840e-02 -4.43440229e-02]
+ [-4.73772883e-01  2.25659505e-01  4.05607641e-01 -1.14557542e-01
+  -1.89632967e-01 -1.18031941e-01 -3.48177642e-01 -5.67675948e-01
+   7.44633153e-02  2.99424320e-01  3.60751599e-02  2.95041949e-01
+  -3.72414514e-02 -2.27925465e-01]
+ [-3.94542605e-01 -9.58455876e-02 -1.11160673e-01  1.89968213e-01
+   2.34126061e-01  1.39159903e-01 -2.60014862e-01  2.00655714e-01
+   2.88559884e-01 -5.79189807e-02 -2.05496866e-02  1.74908251e-01
+  -4.24344420e-01 -3.69535297e-01]
+ [ 4.72770214e-01  1.74876899e-01  7.05633387e-02  5.17587475e-02
+   1.55440047e-01 -6.01998270e-01 -2.61080712e-01 -1.85473785e-01
+  -2.26401284e-01 -2.86100835e-01 -3.45465131e-02  5.18855127e-03
+   3.42682332e-01  5.02987579e-02]
+ [ 3.59465063e-01 -2.04426393e-01  4.24904898e-02 -3.19056720e-01
+  -4.15280789e-01  6.33720979e-02 -1.66299604e-02 -1.77639350e-01
+  -2.39493877e-01 -1.96853086e-01  1.20400034e-01 -6.58396035e-02
+   4.09162417e-02 -3.59526038e-01]]</t>
+  </si>
+  <si>
+    <t>[[ 0.01036917  0.35384548 -0.609217   -0.31045648  0.60249496  0.45060605
+  -0.47992536  0.0762254   0.07091991  0.413003    0.24988875  0.08734936
+  -0.32657745  0.08057642 -0.18131983]
+ [ 0.33247495 -0.11149287 -0.10567889  0.1141818   0.18297133 -0.3349726
+   0.10649931  0.26727152  0.11049998  0.01043643 -0.21141863  0.3292687
+  -0.05410193 -0.05177543  0.43605033]
+ [ 0.02677868  0.07770588  0.30398768 -0.40446213 -0.18526728 -0.33930364
+  -0.05922559 -0.19257653 -0.18613596  0.09428791 -0.14361969 -0.23453769
+   0.31196335  0.06683452  0.03426921]
+ [ 0.2951167   0.27673134  0.27518192  0.0726511  -0.25718817 -0.1293401
+   0.1122404   0.05885674  0.2022156  -0.62372464 -0.02539295  0.1343305
+   0.06011004 -0.35659555 -0.01171022]
+ [ 0.29693133 -0.17504847 -0.01528656  0.39838028  0.16560538  0.09353332
+  -0.1552875   0.04019788 -0.08624288 -0.35172957 -0.0064007   0.04262021
+  -0.5218575  -0.50780165  0.35291997]
+ [-0.39578453 -0.06222583 -0.15550812 -0.10354188  0.30215022  0.32516414
+  -0.14601156  0.15079623 -0.10800058  0.14198314  0.01972781 -0.20479666
+   0.3232686  -0.60343236  0.472367  ]
+ [-0.13845111 -0.12555806  0.20397069  0.27009562 -0.4151384   0.27680695
+  -0.36784366  0.28643614 -0.1444772  -0.15367222  0.19848244 -0.05617413
+  -0.32632157 -0.06431609 -0.16798216]
+ [ 0.0616788  -0.1726715  -0.30537292 -0.21429932 -0.22994903  0.23522677
+   0.08174267 -0.02001624  0.00072074 -0.38533273  0.36396214 -0.33528683
+   0.04053826 -0.19737002  0.00815203]
+ [-0.11582705  0.14107473 -0.32470948  0.00615977  0.13291204 -0.10805492
+  -0.19197346 -0.24225412  0.27330032 -0.20756777 -0.28344128 -0.29942226
+   0.18281803  0.37334862  0.00857432]
+ [ 0.3220524  -0.45240438 -0.02226776  0.2213923   0.23806901 -0.12058928
+  -0.3429698  -0.13798185 -0.03816365 -0.01093357 -0.2918875  -0.34596083
+   0.22695145 -0.25487527 -0.59604615]
+ [ 0.14818096 -0.30115682 -0.04391355  0.19529903 -0.31787965  0.03722965
+  -0.06351852 -0.303061   -0.3597741  -0.19807693  0.40284732 -0.27280945
+   0.00727915 -0.03511959 -0.15086468]
+ [-0.26462147  0.12988842 -0.38954377  0.05375386 -0.17261095 -0.12628831
+   0.16741005 -0.00408298  0.17270479 -0.09150563  0.43019703 -0.41567022
+   0.06458147 -0.12296316  0.2117285 ]
+ [-0.05432849 -0.27023318  0.08160317 -0.15803054 -0.1437852   0.44468972
+  -0.06309842  0.03476816  0.36244294 -0.05986191  0.35301182 -0.36070636
+  -0.48521313  0.38160285  0.04588814]
+ [ 0.19198012  0.12535779  0.13079494  0.2564233  -0.27947983  0.09610533
+  -0.23006114  0.05665039 -0.1450282   0.33563    -0.52415633 -0.11834616
+   0.21948974  0.18688647 -0.06791683]
+ [-0.26045114  0.38409156  0.1315714  -0.29206562  0.02206543  0.0922765
+   0.14950791 -0.39806342 -0.4093152   0.09037556  0.19048807 -0.23967928
+  -0.1338371  -0.28230926  0.274089  ]
+ [-0.05398769 -0.11293586  0.09220374 -0.08849701  0.04614967  0.23141216
+  -0.5116062  -0.13952282  0.07656465  0.14848588 -0.32713932  0.19367129
+  -0.02174522 -0.30996856  0.10801557]
+ [-0.18622632  0.04380243  0.26925614  0.21914831  0.25918385 -0.18461487
+   0.22941273  0.09315303  0.2872768   0.02294803 -0.23493041 -0.137721
+   0.07349049  0.16739763  0.31112123]
+ [ 0.24365604  0.06799985 -0.10292923 -0.10309899 -0.21797428  0.14751635
+  -0.22841841 -0.08215986  0.02483048  0.31125373 -0.30423895 -0.03426385
+   0.1269488   0.26173005 -0.32818574]
+ [-0.22560732 -0.01580934  0.02237434  0.08488743 -0.04360082 -0.03491119
+  -0.12835598  0.21207726 -0.43475977  0.00183386  0.0923055   0.2257658
+   0.1601973  -0.32260287  0.14616473]
+ [ 0.10517914  0.04615019  0.33405387 -0.24197215  0.28356335  0.10586627
+  -0.12627272 -0.258715   -0.31453755  0.07983083 -0.00918993 -0.22442214
+   0.001079    0.30051428 -0.06859893]
+ [-0.26237473 -0.12246744  0.36581326 -0.00150426  0.00797774 -0.4084512
+  -0.11338525 -0.24971296 -0.18179226  0.26969254 -0.2836341  -0.44877127
+   0.2100727  -0.45725682  0.00444816]
+ [ 0.25543523 -0.35785902  0.12368724  0.05722879  0.2488886  -0.12981501
+   0.06253994  0.00237275 -0.33711222  0.4145522   0.07208072  0.0147998
+  -0.2692815  -0.25734928 -0.20100333]
+ [ 0.15466347 -0.08151207  0.0177637   0.2681982  -0.18883103 -0.0909139
+  -0.02685926  0.16801324  0.06760159  0.5559737   0.08657619 -0.2870452
+   0.33772233 -0.05516636 -0.33916065]
+ [-0.32858282  0.00604679 -0.38388243  0.02701941 -0.39113715  0.3052459
+   0.24075116 -0.1995539   0.2740845   0.15989992 -0.2185946  -0.03879643
+  -0.22822355 -0.05635128 -0.13719447]
+ [ 0.32385564 -0.36028403 -0.00123712  0.30480993 -0.29431957  0.06363322
+   0.0372056  -0.226251    0.16893643  0.2661223   0.21463482 -0.42586222
+   0.2381064  -0.00390171 -0.2356727 ]
+ [-0.17210972 -0.18055025 -0.17902178  0.01048675  0.10415222  0.0675291
+   0.177401    0.13338237 -0.40155765  0.55014914  0.00485249 -0.06578699
+   0.10088479  0.11432269  0.33757788]
+ [ 0.33072218  0.04435859  0.26233983  0.12168382  0.31178892  0.0856463
+   0.37185463  0.15044953  0.10995775 -0.23483476 -0.32626167 -0.35398218
+  -0.1249902   0.44424683  0.03963711]
+ [ 0.00613565 -0.38925844  0.05909687 -0.24652155  0.05721879 -0.47482368
+   0.3753472  -0.2625744  -0.45107993 -0.38567427  0.35147542 -0.33869708
+  -0.01243824  0.15104118  0.41685966]
+ [-0.04853928 -0.09394605  0.11264094 -0.0513185   0.13665895 -0.07468633
+   0.06684589 -0.45669475 -0.08326106  0.2462967  -0.23542549 -0.1650453
+   0.2123034  -0.11494952  0.46506137]
+ [-0.1146423   0.04947948 -0.3392416  -0.11114613 -0.4096957   0.18258534
+   0.01288881  0.39656138 -0.08160812 -0.06631389 -0.02353946  0.10910352
+  -0.23515843 -0.28597966 -0.09859193]
+ [-0.08578917  0.16276865  0.14554146 -0.31774926 -0.11675867  0.29285145
+  -0.30189905  0.26767278 -0.06753753  0.02301437  0.1973464   0.09662054
+  -0.15441746  0.19994926 -0.32403612]
+ [-0.53839386  0.07465822 -0.21922354 -0.26652753  0.07940977  0.1976368
+   0.01145739  0.05781127 -0.10617371  0.30933028  0.25833234  0.00287927
+   0.24361886 -0.2993703   0.08489843]
+ [ 0.00678316 -0.23287687 -0.00772802  0.0838748   0.00854667  0.18021041
+  -0.01184378 -0.0898096   0.5059349  -0.00514342 -0.06351233  0.16834322
+   0.3344608  -0.2596635  -0.16523762]
+ [ 0.11199316 -0.06568358  0.02370886 -0.31992647 -0.39915767  0.23958705
+  -0.05431147  0.12931718 -0.10710207  0.50356495  0.27120158 -0.22175966
+  -0.04810203  0.13801882 -0.3814899 ]]</t>
+  </si>
+  <si>
+    <t>[[-0.55036455  0.32286355 -0.17011184 -0.08845076  0.4555543  -0.11679219
+  -0.21733832 -0.15797126 -0.17808458  0.13721916 -0.19136098 -0.6895064
+  -0.12018776  0.14455754 -0.05122257  0.06543738]
+ [-0.24874441  0.5436428   0.45765856  0.14226899  0.3891384   0.19420494
+  -0.43850598 -0.12381522  0.37292516 -0.22442043  0.00461534  0.2019693
+   0.05434383  0.07143746  0.02532062  0.3697899 ]
+ [-0.00229197  0.17619348 -0.2570461  -0.12834577 -0.14282623 -0.1631869
+  -0.29695085 -0.21087022  0.17361742 -0.20238128 -0.15157102  0.20879966
+   0.3980443   0.1728569   0.01741069 -0.37842968]
+ [-0.01492615 -0.37247506 -0.17708553 -0.18629727  0.2374959   0.20810488
+  -0.05737859  0.28444484  0.26754883 -0.12383369 -0.40165022 -0.06450806
+  -0.16009688  0.20133923  0.20435852  0.3487611 ]
+ [ 0.1580295  -0.10826222  0.22793937  0.41922396 -0.04480425 -0.21229209
+  -0.18391635  0.48221776 -0.07748479  0.05264888  0.30424806 -0.06618274
+  -0.03319498 -0.02527944  0.0206401  -0.02580162]
+ [ 0.0642784   0.23476346 -0.16646522 -0.40993908  0.2740558  -0.37652278
+  -0.17843392  0.5413376  -0.33534655  0.23509684  0.38399872  0.23575321
+   0.14746042 -0.40898708 -0.26678273 -0.10891327]
+ [ 0.11402525  0.13308607 -0.00887394 -0.42582604 -0.18807007  0.3183993
+   0.08214533  0.12608092 -0.1886132  -0.19753648 -0.365075   -0.14314707
+  -0.598349    0.2150022   0.13420485 -0.11564364]
+ [-0.043325   -0.22592363  0.03504141  0.18871278 -0.14783323  0.5804044
+  -0.32995936  0.24924523 -0.00913264  0.3409595  -0.47627887  0.2709843
+  -0.05778313 -0.26344857  0.133657   -0.20267653]
+ [ 0.13872598 -0.34525093  0.14810887  0.1903159   0.19723877 -0.29244497
+   0.09857415  0.4782978  -0.2574424   0.12148738 -0.19194023 -0.09227536
+   0.11652654 -0.17206717  0.1942825  -0.06147465]
+ [ 0.28534567 -0.00615286 -0.14903653 -0.21297577  0.11408093 -0.46253178
+  -0.04602928  0.20959376 -0.5735895  -0.02412526  0.37519926  0.0102145
+   0.40159595  0.24968071  0.01701508 -0.34885684]
+ [-0.09262841 -0.41832823 -0.22502007 -0.18729967  0.00599338  0.14564483
+   0.06848285  0.46583304  0.38915914 -0.1655584   0.08932689  0.34350398
+  -0.3439241   0.26105165 -0.36180508  0.19863164]
+ [ 0.51676905  0.26043954  0.05081857  0.14547431  0.20268199 -0.112953
+   0.4342385  -0.40907347 -0.4412492  -0.05894836 -0.05368013 -0.37925643
+   0.03178135  0.2536876   0.20590016 -0.09521613]
+ [ 0.16220947 -0.19266567 -0.25844145  0.06073621  0.07727262 -0.1102164
+   0.08443733 -0.34439567  0.18437633 -0.11925723 -0.05330816 -0.22467594
+  -0.04207515 -0.09848796  0.08728637 -0.41765952]
+ [ 0.27871972  0.07669823 -0.37472752 -0.09468737  0.03781265 -0.28604499
+  -0.13239127 -0.31350815 -0.29675314 -0.49458295 -0.21357776 -0.09928182
+   0.27001882 -0.21940371  0.07639734 -0.40880278]
+ [ 0.20864238 -0.18582153 -0.16780697 -0.09410667  0.32445562 -0.39871404
+  -0.05115759 -0.23646137  0.02125961  0.2571296   0.27354178  0.5207962
+  -0.04746427  0.13614148 -0.1512135  -0.02536611]
+ [ 0.05975823 -0.18001512  0.2646175  -0.47212636  0.3758739  -0.42492288
+  -0.29236463 -0.14535984  0.01854424  0.26131147  0.20424347  0.16837603
+  -0.45042667 -0.03112668 -0.17132509  0.01669796]
+ [ 0.23994964 -0.14713785  0.1611827   0.01538417  0.39381668  0.16571823
+   0.20643151  0.19887045 -0.14388208 -0.00843281  0.18809247  0.1757517
+  -0.50183845  0.21708593  0.14644174 -0.16650991]
+ [ 0.3587294  -0.16477387 -0.21706228 -0.01333266  0.22357155  0.30909118
+   0.00375337 -0.14947562  0.26923576 -0.47593352  0.05877861  0.10885906
+  -0.07097255 -0.03219476 -0.10239307 -0.20783754]
+ [ 0.518729   -0.06994241 -0.04610084  0.5061611  -0.02283533  0.30178255
+   0.0093071   0.0206583  -0.05016018  0.13944955 -0.26962903  0.3979686
+   0.22177437  0.01828205 -0.35044008 -0.11192614]
+ [-0.34504366 -0.08117394  0.13946068  0.2494542  -0.05654275  0.18005326
+  -0.17468609  0.08463837 -0.06319532 -0.01340593  0.04386992 -0.05068217
+   0.01711676  0.16942863 -0.3595842   0.04598976]
+ [-0.02200206  0.0556768  -0.17367671 -0.23899554  0.19339575 -0.2503048
+  -0.18165834  0.22821909  0.18927562 -0.00206306 -0.17509994  0.4620923
+   0.13378637 -0.1189252   0.09680832 -0.18014741]
+ [ 0.32560357 -0.02242115 -0.17437525  0.06392271 -0.3755146   0.01396032
+   0.05000237  0.307938    0.12936889  0.10241859  0.38931754  0.16409552
+  -0.18057187 -0.3879255   0.0119644  -0.26387405]
+ [ 0.03725036  0.12728663 -0.09846954  0.33253375 -0.08855943  0.20787628
+  -0.0245698   0.44233045 -0.07570741 -0.29813406  0.1514506  -0.15561983
+   0.03927352  0.14107436 -0.08509394  0.4561991 ]
+ [ 0.0146871   0.06512148 -0.23233342 -0.19074363 -0.112847    0.19889577
+   0.09080862  0.1939811  -0.1701885  -0.0012494  -0.21428433  0.0193678
+  -0.65124804 -0.17393024  0.10161579  0.1262809 ]
+ [-0.01727097 -0.19729647 -0.08276504  0.16303265  0.14911306 -0.07391967
+   0.45660046  0.19072138 -0.06825029 -0.27188548 -0.21407977  0.6649376
+   0.05894968  0.15896368 -0.01224628  0.2913567 ]
+ [ 0.27221656 -0.33043015  0.08393148  0.31719875 -0.13897291 -0.17616564
+   0.11361512 -0.07647002 -0.3574359   0.32582533  0.3697124  -0.01245704
+   0.17696503 -0.09750065 -0.10930213  0.4722593 ]
+ [ 0.3610918   0.37409282  0.17018378 -0.02728112  0.10427335  0.45565128
+   0.3401059  -0.03421214  0.5152477   0.06606285  0.01147985 -0.23482555
+  -0.1368258   0.1356557  -0.06244424  0.28243876]
+ [-0.16489802 -0.20770068 -0.01508623 -0.2895818   0.18269272 -0.05253036
+   0.22204109  0.06799607  0.30982453 -0.13800032 -0.08516815 -0.03503032
+  -0.04191646  0.13755308 -0.0860317   0.0331496 ]
+ [ 0.10044198  0.02939648  0.35534108  0.34491754 -0.10794052 -0.01511664
+  -0.19752994  0.02547184  0.10387281  0.06668916  0.36203566  0.3482121
+   0.02673729 -0.5015075  -0.00281128  0.11666324]
+ [-0.33751503 -0.03566239  0.26950115  0.15661673 -0.14346988 -0.01637859
+  -0.20908447  0.06736146 -0.25149783  0.18779656  0.20384136 -0.26635605
+  -0.26527348 -0.26245227 -0.4096185   0.2191461 ]
+ [-0.41890988  0.05121457  0.03724953  0.02936479 -0.01248534 -0.25566298
+   0.06528387  0.32803914  0.18846768  0.16885336  0.23041648 -0.14171404
+   0.3296238   0.02166899  0.255537   -0.17252013]
+ [-0.38481846  0.27627033  0.06178666  0.06232096 -0.3128554   0.1126855
+  -0.22066204 -0.08611387  0.3692713   0.34318832 -0.50937164  0.16336587
+   0.11405254 -0.11819459 -0.08857477  0.21290195]
+ [ 0.26037276  0.01559809 -0.06412122  0.0061686  -0.36707297  0.04596083
+  -0.09564129 -0.06572179 -0.26601508  0.2987077  -0.42182457 -0.05272722
+   0.0209109   0.14042053  0.06728822  0.3151824 ]
+ [-0.2785487   0.2903805   0.49443087  0.06726829 -0.06640649 -0.15725037
+  -0.25389403 -0.17481424 -0.08314924  0.11505673 -0.07571866  0.31524262
+  -0.46750423 -0.1490736  -0.00611141  0.16140717]]</t>
+  </si>
+  <si>
+    <t>[[ 2.34862328e-01 -6.01539671e-01  8.88410658e-02 -5.90464845e-03
+   2.73301862e-02  4.16257083e-01  8.87700170e-02 -8.56734812e-02
+  -6.63557053e-02  3.03191692e-02  3.92703295e-01  4.89851497e-02
+  -3.95119011e-01  4.76188570e-01 -6.31345689e-01  4.01221924e-02
+  -1.20000072e-01]
+ [ 3.56463909e-01 -2.84594059e-01  5.16623974e-01 -2.16541797e-01
+  -4.22119945e-02  1.46666840e-01 -5.44570446e-01 -8.17584693e-02
+  -6.35860339e-02 -1.23223439e-02 -8.54518861e-02  5.21558166e-01
+  -2.23972857e-01  6.40579641e-01  2.36865645e-03 -1.84932977e-01
+  -1.15964969e-03]
+ [ 1.65063053e-01 -1.62838131e-01  6.49141297e-02  1.61612079e-01
+   1.38651505e-01 -2.85410792e-01 -5.03603220e-01 -1.41936287e-01
+  -2.70772547e-01 -3.85458171e-01  7.18597025e-02 -4.65875752e-02
+  -1.43090963e-01  2.83382624e-01  3.04017216e-01 -8.96224827e-02
+  -1.45175099e-01]
+ [ 8.96621943e-02  1.87905788e-01 -9.01643410e-02  2.98888590e-02
+   3.41862184e-03 -3.77221406e-01 -3.37770045e-01 -4.68900055e-01
+   9.62017104e-02  2.70597190e-01  2.69040644e-01 -4.70925719e-01
+   9.40166935e-02  2.77344465e-01  9.53148454e-02 -1.01353802e-01
+   1.17984608e-01]
+ [-1.16606325e-01 -1.79565251e-01 -3.17397684e-01 -4.58398223e-01
+  -1.61729649e-01  4.04942006e-01 -1.40850425e-01  2.64053881e-01
+  -1.18080549e-01 -2.94136465e-01  3.21301311e-01  3.00981104e-01
+  -3.15313429e-01 -2.54067034e-01  8.71860385e-02  5.46484068e-02
+  -3.42240900e-01]
+ [-1.04125336e-01  3.10598165e-01 -4.25475799e-02 -3.07167619e-01
+   1.92409635e-01  1.05272710e-01  1.00848787e-01 -7.06192106e-02
+   4.26808536e-01 -3.94644737e-01 -1.06860854e-01  4.41888541e-01
+  -1.64146215e-01  3.71975839e-01  2.91650265e-01  1.08034983e-01
+   2.48630345e-01]
+ [ 2.19688728e-01  1.69075932e-02  8.23936686e-02  7.02866539e-02
+   5.23011208e-01  1.62070230e-01 -2.31326986e-02  1.14761360e-01
+   1.88613579e-01  2.84549832e-01  2.15686202e-01 -1.10734351e-01
+   1.44322030e-02 -4.28087264e-03 -1.21588163e-01 -3.90845358e-01
+   1.56065032e-01]
+ [-8.74737650e-02 -2.07915366e-01  5.94581127e-01 -7.47487023e-02
+  -3.00902724e-01 -1.41912326e-01 -5.48054576e-01  1.37631297e-01
+  -3.11645418e-01  2.80896932e-01 -4.02353257e-01 -1.78261235e-01
+   8.14783871e-02 -1.02910198e-01  3.04772824e-01 -8.88956785e-02
+  -4.54261243e-01]
+ [-1.85455382e-02 -1.83418989e-01 -8.86577368e-02  1.30284816e-01
+  -5.70589125e-01 -3.68577808e-01  3.65735799e-01 -3.06993961e-01
+  -2.01741815e-01  1.00393571e-01 -1.18910380e-01 -3.43777746e-01
+  -1.35152236e-01  8.01068246e-02 -3.42424631e-01  8.84321183e-02
+  -4.63798225e-01]
+ [-1.66315615e-01 -3.94765556e-01 -2.52362281e-01 -3.86680253e-02
+   3.66441488e-01  1.31512552e-01 -2.04400361e-01 -1.76850587e-01
+  -2.74597555e-01  4.61619161e-02  3.05811793e-01 -8.45887735e-02
+   2.88818568e-01  1.34075265e-02 -5.18443167e-01 -1.71101078e-01
+  -1.67774692e-01]
+ [-3.64574879e-01  4.89754081e-01  1.34887770e-01  1.48488417e-01
+  -7.20882565e-02  2.25952026e-02  3.11763704e-01 -3.07127442e-02
+  -4.06585604e-01 -4.99564863e-04 -3.10408324e-01  2.27710277e-01
+  -1.00256801e-01  7.88876787e-02 -1.49103656e-01  2.14145541e-01
+   2.87011802e-01]
+ [-1.79223150e-01 -1.14650749e-01  7.94053823e-02  2.92312592e-01
+  -2.72453964e-01 -2.09005162e-01 -4.69946340e-02 -5.77962287e-02
+   3.42390418e-01 -1.00702478e-03 -5.67616522e-02  3.88451308e-01
+   5.92025936e-01  1.29672915e-01 -2.39642113e-01  4.45510931e-02
+  -1.79889739e-01]
+ [-1.63434714e-01 -4.00380552e-01  2.52468027e-02  3.14542592e-01
+  -2.09452853e-01 -4.06055152e-01 -2.76598543e-01 -5.01501746e-02
+  -1.78009242e-01  2.31361035e-02 -3.15896064e-01  7.36849904e-02
+  -4.42334488e-02 -2.66383111e-01  1.29738957e-01  1.63721275e-02
+   4.06025678e-01]
+ [-2.13735908e-01 -4.15661745e-02 -1.29170030e-01 -1.03951365e-01
+   1.20264396e-01 -4.50942926e-02 -9.06930268e-02  3.82738143e-01
+   1.23141170e-01 -4.64899808e-01  1.95832148e-01 -2.85032779e-01
+   4.91857618e-01 -3.52376342e-01 -6.85639381e-02  1.34847984e-01
+   4.45995003e-01]
+ [-2.11504936e-01  2.79140532e-01 -1.29956439e-01 -2.34649498e-02
+  -6.62044203e-03 -2.18516439e-01  1.43174827e-01 -1.28050417e-01
+   3.31965566e-01  6.14237748e-02  2.41172925e-01  3.16869378e-01
+   1.18946023e-01  3.96414250e-02  1.80422306e-01 -2.85360932e-01
+   7.72862732e-02]
+ [ 5.51880181e-01 -1.44041389e-01  2.89675236e-01 -9.75597799e-02
+  -1.05274551e-01  1.05479561e-01  9.78533924e-02 -4.35453743e-01
+   1.71853617e-01 -2.35962093e-01  8.32668506e-03 -5.39950788e-01
+  -1.35805771e-01  3.93042296e-01 -1.09586187e-01  6.58341050e-02
+   1.39071792e-01]
+ [-9.55562592e-02 -1.17878169e-01  1.98922887e-01  1.80337101e-01
+   9.07786265e-02  6.24512210e-02  1.80198029e-01 -8.92370567e-02
+  -2.45816827e-01 -1.84341684e-01  5.54383457e-01 -2.45255560e-01
+  -3.26573551e-01 -6.67105569e-03 -4.87199090e-02  3.27721715e-01
+   4.39150371e-02]
+ [ 1.30993888e-01 -1.29924819e-01  2.34086975e-01  1.55442789e-01
+  -1.30603299e-01  6.24341369e-02  5.66508388e-03  3.27609032e-01
+  -2.95286980e-02  2.50986516e-01 -4.00235415e-01 -4.08110768e-01
+   1.22606404e-01 -4.15098816e-01 -2.02146813e-01  2.04791412e-01
+   3.98431808e-01]
+ [-1.45844549e-01  2.89094329e-01 -7.25681484e-02 -2.01009039e-04
+   2.31958956e-01 -2.95021087e-01 -6.22281320e-02  3.87043148e-01
+  -8.07052553e-02 -2.95710146e-01 -3.96756023e-01  2.27331951e-01
+  -4.24257554e-02  2.49073103e-01  1.55270368e-01  2.14194179e-01
+   9.95675549e-02]
+ [ 9.59545672e-02  1.85646623e-01  1.73337117e-01  2.33397745e-02
+   8.72935504e-02 -6.14810502e-03 -4.54333037e-01 -8.72310698e-02
+   2.62385309e-01  5.29665910e-02  6.35537086e-04 -2.60488749e-01
+   7.03039318e-02 -9.57024917e-02 -1.22695081e-01  8.74733105e-02
+  -3.73340659e-02]
+ [-6.94194585e-02 -7.08024278e-02  2.12025121e-01 -1.36268958e-01
+  -2.68512040e-01 -4.60270256e-01  2.05207691e-01  1.76646009e-01
+   1.57542646e-01 -2.38038860e-02 -1.63056597e-01 -7.22542107e-02
+   4.32841420e-01  5.34743629e-02  5.58834910e-01  2.29624704e-01
+   1.52914952e-02]
+ [ 1.52854949e-01 -4.28828187e-02  1.32985190e-01 -1.78195715e-01
+  -3.23213041e-02 -3.28409672e-01  2.64682204e-01  5.17062135e-02
+  -9.26700011e-02 -4.98963185e-02 -1.22944087e-01 -4.27051149e-02
+  -7.74513707e-02 -2.08396450e-01  1.32439435e-01  1.79824099e-01
+   1.07876562e-01]
+ [-2.82764077e-01  9.48432460e-02 -1.33080306e-02  3.93986441e-02
+  -4.25037354e-01  1.24151357e-01 -1.71302468e-01  3.32366288e-01
+  -3.70975174e-02  2.88433045e-01 -2.08751827e-01 -2.72409558e-01
+  -1.48967262e-02 -1.27226859e-01 -1.91041771e-02  2.19712883e-01
+  -5.10991900e-04]
+ [-1.15316384e-01 -2.38731593e-01 -9.44148526e-02 -9.64019150e-02
+   2.09639013e-01 -1.04667857e-01  1.12779163e-01 -1.85144454e-01
+  -5.75412586e-02 -2.50217110e-01  1.82114422e-01  6.21559508e-02
+  -1.19439781e-01 -2.30140961e-03 -1.64099917e-01  2.07199648e-01
+  -3.20028104e-02]
+ [-2.27955833e-01 -6.03677072e-02 -2.85429806e-01 -6.61468655e-02
+  -3.43300492e-01  1.84240773e-01  2.54196703e-01  3.13127995e-01
+  -5.59478737e-02 -3.58097225e-01 -2.02010974e-01  1.94347680e-01
+   8.66308361e-02 -5.77359617e-01  6.48445785e-01 -1.71216559e-02
+   2.55940352e-02]
+ [ 2.46190876e-01 -2.85353094e-01 -2.80951500e-01 -2.35361040e-01
+  -2.57007450e-01  8.29335377e-02 -2.50621438e-01 -2.50133663e-01
+   7.41016194e-02  3.62247556e-01 -3.16381961e-01  1.26303315e-01
+   2.12070972e-01  3.69448751e-01 -1.27892926e-01  7.12969750e-02
+  -3.99494767e-01]
+ [ 2.94730544e-01  3.01384866e-01  7.56055266e-02 -2.98065752e-01
+  -7.48918280e-02  1.06652543e-01 -5.17043285e-02  1.99146733e-01
+  -1.86198398e-01 -7.51878023e-02  4.75217476e-02 -1.61404684e-01
+   3.10219899e-02 -4.03919488e-01 -3.36802512e-01 -3.14779311e-01
+  -8.09154689e-01]
+ [-4.57087308e-02  3.95218469e-02 -2.46294647e-01 -2.51141638e-01
+  -4.11742069e-02 -4.73812707e-02  2.42834538e-02 -1.51704550e-01
+  -4.27663513e-02 -3.03808540e-01 -3.85441780e-01  5.97743765e-02
+  -4.18871611e-01 -7.03752600e-03  3.40764552e-01  3.04425005e-02
+  -2.77922809e-01]
+ [ 2.83660349e-02  2.29758978e-01 -7.85042048e-02 -3.60316247e-01
+   6.43667430e-02  8.76274426e-03 -3.16564739e-01  2.42852971e-01
+   2.29147330e-01 -3.62789601e-01  2.23271370e-01 -3.42806965e-01
+  -4.49618906e-01 -8.66412669e-02  1.75662652e-01  1.85039327e-01
+   1.55947074e-01]
+ [ 5.04641980e-02 -1.53054997e-01  1.67458743e-01  2.19126597e-01
+   1.65636733e-01  8.80265385e-02  3.44901048e-02  8.18701312e-02
+  -6.83085993e-02  1.85704634e-01 -1.23324990e-01  4.49891061e-01
+  -1.31758019e-01 -6.35639489e-01 -3.35712194e-01  1.53770437e-02
+   4.59548309e-02]
+ [-8.03058892e-02 -5.98200187e-02 -9.87954065e-02 -1.15152694e-01
+   1.51247203e-01 -1.36072025e-01 -1.44089223e-04  3.99764348e-03
+   4.25061695e-02 -3.71948540e-01  2.70765930e-01  3.43905121e-01
+   2.64073282e-01  6.78221583e-02  2.64226794e-01 -1.38348946e-02
+  -2.37447619e-02]
+ [-4.81404960e-01  4.14792933e-02  1.29872754e-01 -1.46635532e-01
+  -1.30179152e-01  2.86231518e-01 -1.65450439e-01 -1.37482285e-02
+   5.47486901e-01 -2.61882782e-01  1.89451501e-01  1.69119179e-01
+  -1.18647583e-01 -4.08059120e-01 -1.04671158e-01 -4.73545268e-02
+   1.93447009e-01]
+ [ 4.36082959e-01  4.27647591e-01  6.44961149e-02  2.14106530e-01
+   1.06819049e-01 -3.68141770e-01  4.37082350e-01  4.53515410e-01
+  -4.44253087e-01  3.30684841e-01 -3.57547849e-01 -3.21661532e-02
+  -3.65771204e-01 -7.72690624e-02 -7.71832541e-02 -1.68765202e-01
+   1.30517095e-01]
+ [-3.64832491e-01  2.10603625e-01 -1.24967702e-01 -1.79237962e-01
+  -2.72979230e-01 -2.90605336e-01 -6.52938662e-03  1.56519800e-01
+  -2.02941403e-01 -1.09740078e-01 -5.38294762e-02  2.40935817e-01
+  -2.89438248e-01 -1.22328088e-01  2.37206686e-02  4.87182617e-01
+  -1.78731948e-01]]</t>
+  </si>
+  <si>
+    <t>[[ 1.56399772e-01 -5.85753061e-02 -1.78806409e-01  9.14280713e-02
+  -3.26210469e-01 -6.84346631e-02  3.97359103e-01  4.00478020e-02
+   1.18975826e-01  1.21666737e-01  1.84174374e-01 -4.23624545e-01
+   4.01981696e-02  1.22530021e-01  1.45804137e-01 -6.53210044e-01
+  -5.36361039e-01  4.50234152e-02]
+ [ 2.48690709e-01  5.56825936e-01 -2.80183941e-01 -1.16967015e-01
+  -7.95527920e-03 -1.81996986e-01  3.98040324e-01  1.40463099e-01
+  -1.47902802e-01 -1.54305831e-01 -1.50833279e-01 -3.92606884e-01
+   8.24706182e-02 -3.18092227e-01  1.20902352e-01  3.98543268e-01
+  -1.20101184e-01 -2.22200364e-01]
+ [ 2.35075280e-01 -7.67864883e-02 -4.13120359e-01 -1.10900991e-01
+  -1.87359080e-01 -2.59263158e-01 -1.83499411e-01 -2.32602805e-01
+   2.28983741e-02  3.15930583e-02 -2.32798144e-01 -1.91064298e-01
+  -4.84570302e-02  2.09576920e-01  4.21458930e-01  3.08225632e-01
+  -1.66879166e-02 -7.66414031e-02]
+ [ 4.29065190e-02  4.32818979e-01  1.92445233e-01  2.61375606e-01
+  -1.48163915e-01 -1.79612204e-01  3.58550221e-01 -2.13888988e-01
+  -9.86868665e-02 -1.73096597e-01 -2.19490543e-01  2.01017916e-01
+   3.25066596e-02 -3.71776372e-01  2.98694074e-02 -2.11863026e-01
+   4.67697456e-02 -4.60236073e-01]
+ [-1.34558305e-01  5.00299409e-02  2.84942716e-01  1.11066326e-01
+  -2.65574735e-02  2.64141291e-01  2.96027184e-01 -6.04150705e-02
+   5.27167805e-02 -1.43462513e-02 -5.15006855e-03 -6.23107105e-02
+   5.42651564e-02  1.43324686e-02 -9.90263373e-02  1.95839509e-01
+  -2.58542001e-01 -1.87178746e-01]
+ [ 1.86723754e-01 -1.00205213e-01  4.13510576e-02  5.63758850e-01
+   1.69704661e-01 -5.80348112e-02  4.33339566e-01  9.95856524e-02
+  -2.62858033e-01 -3.07137966e-02 -7.18582198e-02  6.03851378e-02
+   1.93036512e-01  9.76215526e-02 -2.17385277e-01  1.09411471e-01
+   2.04563197e-02 -2.89441757e-02]
+ [ 3.17392468e-01  2.79998302e-01 -6.64147586e-02 -3.03235203e-01
+   1.01792358e-01 -1.65161695e-02 -1.53522328e-01 -1.05664227e-02
+  -3.93715888e-01  2.73206472e-01 -5.37055172e-02 -3.11186701e-01
+   3.35345387e-01 -1.82611018e-01  2.62529626e-02  3.62370312e-02
+   1.20895244e-01  1.58974215e-01]
+ [ 5.05756624e-02  5.07219970e-01 -1.17950216e-01  1.50406361e-01
+   1.57262012e-01 -2.76097864e-01 -3.74486268e-01 -2.94848353e-01
+   1.98697597e-01 -3.06997389e-01 -2.95739472e-01 -2.08646774e-01
+   3.07256639e-01  3.00449338e-02  1.05300337e-01  1.84210867e-01
+  -4.06521052e-01 -3.03490698e-01]
+ [ 1.85059801e-01 -3.30999613e-01 -4.51509416e-01  9.59631801e-02
+  -1.51491106e-01 -1.09022073e-01  2.08726451e-01 -1.67990521e-01
+  -2.01641321e-02 -3.39850456e-01  3.65131915e-01 -4.16262150e-01
+   1.37558162e-01 -1.80738140e-02 -3.69357914e-02  2.21636236e-01
+   4.56192404e-01  1.62363648e-01]
+ [ 1.44215792e-01  1.74667612e-01 -2.27780025e-02 -2.47045346e-02
+   2.17689034e-02 -1.45763144e-01 -2.99768507e-01  2.48079691e-02
+   3.11439812e-01  5.13243496e-01  3.80288303e-01  3.02492529e-01
+  -1.52220383e-01 -3.47420126e-02 -2.38184541e-01 -1.56617969e-01
+  -1.85648426e-02  2.71494359e-01]
+ [ 1.38781562e-01  3.07805687e-01  1.57769144e-01 -6.03650033e-01
+   1.38057023e-01 -2.58422166e-01  3.92647475e-01  4.09210324e-01
+  -2.62882039e-02  7.87512735e-02 -1.72895312e-01 -2.91092277e-01
+   2.85686880e-01  3.78489345e-01  1.25754431e-01 -3.50738615e-01
+   6.56276166e-01 -4.62803215e-01]
+ [-5.11965156e-01 -3.17339927e-01 -3.16722661e-01 -1.36254951e-01
+   2.76789516e-01  1.91732526e-01 -1.81096010e-02 -5.54684214e-02
+  -1.13268895e-02 -5.95776327e-02 -7.90088624e-02  5.46290400e-03
+  -2.94100910e-01 -2.92275459e-01  3.60455304e-01 -4.60039616e-01
+   5.24535440e-02 -5.23102939e-01]
+ [ 1.37961864e-01 -3.90538990e-01 -1.92823838e-02 -2.84468323e-01
+  -7.63273239e-02 -2.26023719e-01 -1.04702324e-01 -2.18848631e-01
+   5.81374858e-03  1.76913157e-01 -2.68444955e-01 -5.26936173e-01
+   1.78120196e-01  1.06394917e-01 -1.72742337e-01 -2.38766268e-01
+  -4.60319579e-01 -8.57500657e-02]
+ [ 1.91021964e-01  1.21469520e-01 -7.12546334e-02 -2.09572107e-01
+  -1.30782411e-01 -3.12572867e-01  1.12587467e-01  4.93911833e-01
+   2.98858762e-01 -1.24273933e-01  1.25815600e-01  1.64565787e-01
+  -1.12812459e-01  1.36108413e-01 -1.10814542e-01 -2.64260173e-01
+   2.91693807e-01 -7.75814801e-02]
+ [-1.84711531e-01 -3.28230649e-01 -5.45297861e-02 -2.16243818e-01
+  -4.53436881e-01  1.44362181e-01  2.62068838e-01 -4.11337703e-01
+   2.37593159e-01 -2.12622836e-01  1.51922539e-01 -1.82148308e-01
+  -6.08157218e-02 -2.01075464e-01  8.94300938e-02  1.60551846e-01
+   2.97405690e-01 -2.71758400e-02]
+ [-2.36608714e-01 -2.35804804e-02  4.40023452e-01 -1.73549995e-01
+   8.18247423e-02 -7.55092055e-02  3.62242237e-02 -2.45573074e-01
+   7.82473385e-02 -3.36364359e-01 -7.54412934e-02 -2.05421150e-01
+   3.33228186e-02  3.33421797e-01 -6.31614625e-02  1.77606747e-01
+   1.96393117e-01 -3.23212534e-01]
+ [-1.92360714e-01 -1.39076307e-01 -1.26087844e-01  3.84036720e-01
+   2.47431472e-01  4.47787270e-02  5.41322213e-03  1.40232161e-01
+   1.57209535e-04 -8.29764903e-02 -5.43215722e-02  5.19446254e-01
+   4.71665382e-01  3.99577588e-01  1.83821246e-01 -2.01008786e-02
+  -4.41655442e-02  2.45403633e-01]
+ [ 6.96166009e-02  2.65342817e-02  3.67671818e-01  3.41658443e-01
+   6.08514473e-02  3.02877091e-02 -2.96548665e-01  1.60187811e-01
+  -2.74283618e-01  5.23307681e-01 -3.23750257e-01 -1.45827428e-01
+   3.73334140e-01 -1.90952674e-01 -3.71367067e-01 -4.29601997e-01
+  -2.82807816e-02  1.83262333e-01]
+ [-2.75347739e-01  9.40920338e-02  1.98645264e-01 -5.05579170e-03
+   1.81576967e-01  1.16137512e-01 -4.16247785e-01  1.72284484e-01
+  -7.28537291e-02  2.74991691e-01  1.00247256e-01  4.40544516e-01
+  -2.42937803e-01  1.36359975e-01 -2.74762303e-01  3.40042323e-01
+   1.10067174e-01 -1.89913258e-01]
+ [ 2.02961698e-01 -2.07067445e-01 -1.35592207e-01  1.77917913e-01
+  -2.60575682e-01  2.51934916e-01  2.53375858e-01  3.79388750e-01
+   1.53911278e-01 -2.21161664e-01  9.19772312e-02  1.96022153e-01
+   1.53485313e-01 -2.08030924e-01  1.60515070e-01 -3.02636355e-01
+   3.23902458e-01  1.93487331e-01]
+ [ 4.72248942e-02 -3.28748405e-01 -3.17793190e-01  2.02449143e-01
+  -4.82528150e-01 -5.97498491e-02 -1.52723957e-02 -3.35048854e-01
+   2.96973169e-01  3.08618546e-02  2.98184335e-01  3.52904797e-01
+  -6.33286983e-02 -2.85459191e-01  2.58409947e-01  7.73001984e-02
+  -7.43950903e-02  4.51141559e-02]
+ [-4.50259522e-02 -3.23703289e-01 -3.76169533e-01 -1.74644276e-01
+   2.23134503e-01 -8.09588134e-02 -2.66941488e-01  3.66823435e-01
+  -1.42143339e-01 -5.77793755e-02 -3.95603776e-01  1.59725085e-01
+   1.21557146e-01 -2.98125073e-02 -2.35854328e-01 -1.15085952e-01
+   4.33468342e-01  1.57384828e-01]
+ [ 1.43557340e-01 -2.87941322e-02  1.81414649e-01 -3.33619773e-01
+   2.70548612e-02  4.64217179e-02 -3.70293081e-01  4.31011111e-01
+   2.37682406e-02  1.06520228e-01  1.47261590e-01  4.16704081e-02
+  -1.99472532e-01  4.09077331e-02  2.53260344e-01 -4.09297161e-02
+  -1.08858692e-02  3.31080467e-01]
+ [-2.63704300e-01 -3.15683663e-01  2.59982824e-01  3.33765000e-01
+   2.18142480e-01  1.32400304e-01 -1.21792434e-02 -1.55195937e-01
+  -1.73816174e-01 -1.96612954e-01  9.31466594e-02 -8.23305473e-02
+  -1.09419286e-01 -1.33916840e-01  5.63098444e-03 -2.01629102e-01
+  -1.81902692e-01 -2.10624952e-02]
+ [ 3.40115637e-01 -3.02607119e-01 -2.29615457e-02 -3.17811489e-01
+   4.48052973e-01  2.50988752e-01  7.62134343e-02  2.95549154e-01
+  -2.75713414e-01 -1.33006200e-01  2.13019028e-01  3.87561042e-04
+   4.86550629e-01 -4.33182865e-01 -2.03784809e-01 -1.33143708e-01
+  -1.94668442e-01  2.02059448e-01]
+ [-4.63714749e-01 -1.83113173e-01 -6.24564067e-02  3.79291594e-01
+  -5.03371879e-02 -1.46805253e-02  8.24776962e-02 -1.59241617e-01
+  -4.31209981e-01 -1.51599675e-01  1.85659438e-01 -1.30858839e-01
+  -2.42405608e-02  1.52229264e-01 -1.00390449e-01 -7.98954535e-03
+   2.60448903e-01  4.54470180e-02]
+ [-1.23205610e-01  1.31976366e-01  2.82909185e-01 -5.12096584e-02
+  -8.70617852e-02  2.04223990e-01 -4.13416475e-01  1.61686897e-01
+   1.37089849e-01  9.60834250e-02  4.13782716e-01 -2.15116605e-01
+  -1.24080762e-01  9.53242555e-02  1.13804013e-01  1.67613521e-01
+   3.67243856e-01  6.42981678e-02]
+ [ 3.26864541e-01 -9.99219418e-02  1.25434056e-01 -2.87634297e-03
+  -1.08629642e-02 -2.86825329e-01  1.92826554e-01  2.54048735e-01
+   5.23202345e-02  3.42092961e-01 -1.81466192e-01  1.69775411e-01
+   3.33668478e-02 -4.70786244e-01 -3.54566336e-01 -2.13775232e-01
+  -3.84210795e-01 -1.02215312e-01]
+ [-1.56407818e-01 -2.74372578e-01 -3.41265380e-01 -1.95875481e-01
+   3.18909764e-01  4.51840721e-02  7.55091086e-02  4.62613925e-02
+  -4.03713509e-02  2.81664431e-01 -4.27604914e-02 -1.08863264e-01
+   2.11143345e-01  2.01604903e-01  1.94569916e-01  1.04991190e-01
+  -1.31019562e-01  2.52547979e-01]
+ [-2.09315225e-01 -3.33531618e-01 -1.43481091e-01  1.08254232e-01
+   2.00622864e-02  1.32417753e-01 -1.30732298e-01  1.12404846e-01
+  -3.44431214e-02 -5.07254452e-02 -1.17994457e-01  3.15769762e-01
+  -8.90674517e-02  3.37748565e-02 -1.02916710e-01 -1.39168158e-01
+  -1.71722293e-01  2.79694259e-01]
+ [ 9.26987976e-02 -2.76114732e-01 -6.92538917e-02 -2.02321131e-02
+  -6.06363595e-01 -1.02270044e-01 -2.79022217e-01  2.02972218e-02
+  -4.21071768e-01  5.42152412e-02 -1.99416086e-01 -9.03923735e-02
+  -7.11050108e-02  1.03791486e-02 -7.06602782e-02  2.33254120e-01
+   1.25602752e-01 -2.73883380e-02]
+ [ 3.17366183e-01 -1.84063181e-01  2.26501543e-02  5.54142892e-01
+  -5.61801076e-01  2.88219810e-01 -3.94539610e-02 -4.42874968e-01
+  -2.13524267e-01 -3.33813190e-01 -5.96995577e-02 -3.02981526e-01
+   2.89504200e-01  6.34763613e-02  4.23750021e-02 -1.98660180e-01
+   3.58410269e-01  6.20003827e-02]
+ [-2.31144652e-01 -6.38384894e-02 -1.08185731e-01 -3.26635540e-01
+   6.03706650e-02  7.96488486e-03  2.17916906e-01  2.03025579e-01
+   8.95689875e-02  7.82084391e-02  1.96166188e-02  1.49359107e-01
+   3.68775040e-01 -3.44417155e-01  1.58554479e-01 -1.70284227e-01
+   2.37097219e-02 -3.02480645e-02]
+ [ 6.24338305e-03 -2.21515536e-01 -1.39932605e-02 -2.05134004e-01
+  -4.86074984e-01  3.25133264e-01 -4.22619283e-01  1.78695321e-01
+  -4.06788588e-01 -9.83630493e-03 -8.34568664e-02 -3.17533046e-01
+   8.39762092e-02  3.58918756e-01  5.24753006e-03  4.02052216e-02
+  -2.61152595e-01  1.79469630e-01]]</t>
+  </si>
+  <si>
+    <t>[[-4.68967808e-03 -3.24109346e-01 -1.34842038e-01  1.57704979e-01
+   9.45081562e-03 -5.09020150e-01 -1.06250197e-01 -1.57429233e-01
+   6.90735936e-01 -1.20120876e-01  1.58501208e-01 -9.85361710e-02
+   5.10190725e-01  7.60999769e-02  2.79731136e-02  8.97856131e-02
+   2.95695692e-01 -2.37208769e-01  3.90252829e-01]
+ [ 1.04532741e-01 -2.09081247e-02 -1.01277605e-01  9.61270854e-02
+   1.42829269e-01  3.19886118e-01  4.52398360e-01 -1.00106053e-01
+   3.64768028e-01  1.19347483e-01  1.65805101e-01  1.50236130e-01
+  -2.08340481e-01  2.51301890e-03 -4.44866717e-02 -2.00414225e-01
+   2.11838573e-01 -2.97582805e-01  1.58037454e-01]
+ [-1.04137063e-02  3.59922379e-01  3.58237624e-02  1.12178780e-01
+   1.13709591e-01  2.00795960e-02 -1.80500373e-01  2.42169350e-01
+  -3.97910178e-01  6.61451295e-02  2.42095038e-01 -7.33978972e-02
+  -1.08858496e-01  7.96696395e-02 -3.97040695e-01  6.86695194e-03
+   2.48112902e-01  2.11127266e-01 -5.50357044e-01]
+ [ 5.23352399e-02  5.71065471e-02  2.34812990e-01 -3.00006028e-02
+   5.69386065e-01  2.98069090e-01  1.66812047e-01  4.96052131e-02
+  -1.74516380e-01 -8.71505737e-02 -4.27340418e-02 -1.65822759e-01
+   2.10113853e-01 -1.03339866e-01  2.60216266e-01 -2.74281241e-02
+   7.04499856e-02 -4.20411257e-03  1.40663266e-01]
+ [ 1.64733693e-01 -1.05318114e-01  1.41878858e-01 -8.26224163e-02
+   9.24433172e-02 -2.32701540e-01  8.65133479e-03  4.33240891e-01
+   1.82307139e-02  2.39257202e-01  1.02514639e-01  3.79655212e-01
+   1.18293926e-01 -3.14201266e-01 -4.80037630e-01  8.02718103e-02
+   2.98041910e-01  1.76236749e-01 -1.59242436e-01]
+ [-2.24594265e-01  1.03321925e-01 -2.47623801e-01  1.66265927e-02
+  -2.57892042e-01  2.40668673e-02  2.51635402e-01  2.47142371e-02
+  -1.60541564e-01  2.62128472e-01 -3.83302718e-01 -1.47612199e-01
+  -7.99698904e-02  6.41105533e-01 -2.39880726e-01  1.35140494e-01
+   4.94717330e-01 -1.99502677e-01 -1.14716113e-01]
+ [-1.62835032e-01 -1.59334257e-01  1.45578519e-01 -3.36448886e-02
+   4.18892473e-01 -2.53566019e-02  2.86727518e-01  1.09252922e-01
+   5.37229814e-02 -1.09028593e-01  4.17400688e-01 -3.00885141e-01
+   1.97404698e-02 -4.49981168e-02  5.49238473e-02 -3.67697217e-02
+  -3.57635058e-02 -2.22612411e-01  2.20285892e-01]
+ [-2.12257743e-01  1.85704261e-01 -2.22196653e-01 -2.32844874e-01
+   3.49872440e-01 -1.94347888e-01 -9.26587880e-02  5.64651638e-02
+   8.94443169e-02 -6.18454181e-02 -9.25424099e-02 -6.06443025e-02
+  -1.37764737e-01  1.89118519e-01  4.51226952e-05  2.27752700e-01
+  -1.38516977e-01 -2.78035522e-01  1.72982886e-01]
+ [-2.94511825e-01 -9.22964886e-02 -4.43901420e-01  1.03862077e-01
+   2.78751820e-01 -1.59534827e-01  9.28634852e-02  2.63482898e-01
+  -2.71864682e-01  2.48168930e-01  1.92089126e-01 -7.71750584e-02
+  -1.15578040e-01  1.74752027e-01  2.60588974e-01  1.13573916e-01
+  -1.20345280e-02  2.33527035e-01 -3.14853378e-02]
+ [-1.11960277e-01 -4.00023550e-01 -3.07915568e-01 -2.06313208e-01
+   4.40660343e-02 -1.22135520e-01 -1.61340728e-01 -4.13553566e-02
+   3.44350725e-01  2.62322882e-03 -9.52154770e-02  5.84282689e-02
+   3.69890243e-01  6.90849451e-03 -1.75125688e-01  1.65983662e-01
+  -2.84910738e-01  6.07543774e-02 -3.16548914e-01]
+ [-3.16838890e-01 -1.69453081e-02  1.94419373e-03 -3.22052807e-01
+   6.02288097e-02  2.82428145e-01 -5.52013926e-02 -1.55216217e-01
+   2.44337618e-01 -3.02007169e-01 -1.97111756e-01  1.07458264e-01
+   3.55178416e-01  2.09651485e-01  1.11807048e-01  3.27312380e-01
+  -8.65724832e-02 -2.70525813e-01  4.18668240e-02]
+ [-1.67241186e-01 -6.71530664e-01  1.14238419e-01 -3.30413878e-01
+  -2.76194245e-01  3.45830709e-01 -2.44854555e-01 -2.92423405e-02
+   3.56257125e-03  1.33777529e-01 -3.58522832e-01  1.43990397e-01
+  -2.26644594e-02  1.06835976e-01  1.83398515e-01  5.05975932e-02
+   1.45153478e-01  1.65197983e-01  9.98423100e-02]
+ [-4.80139554e-01 -5.06261587e-02  1.79115161e-01 -3.79783511e-02
+  -6.73242733e-02  4.35358100e-02 -2.16798931e-01  2.75557488e-01
+  -1.03160173e-01  9.77757946e-03 -3.17065597e-01  3.28305751e-01
+   6.71878308e-02 -1.39731899e-01 -2.33822986e-02 -5.38754284e-01
+  -1.27306446e-01 -1.09292872e-01  1.30336517e-02]
+ [-1.55690834e-01 -1.62786916e-01 -3.83147418e-01 -4.71324056e-01
+   4.37566899e-02  8.14560205e-02  1.05344191e-01  6.63780272e-02
+   1.84027761e-01  4.87946644e-02  1.09085657e-01 -3.24209183e-01
+   5.77102639e-02  2.38932148e-02  2.64766276e-01  4.22934517e-02
+   1.50064200e-01 -4.21417087e-01  3.81298751e-01]
+ [ 1.08348325e-01  3.18429530e-01 -1.65733516e-01  1.55876487e-01
+  -1.57307521e-01  2.25899681e-01  1.62737548e-01  2.01075107e-01
+  -1.15730606e-01  4.91803177e-02  1.13018654e-01  1.22731283e-01
+   2.81365097e-01  3.81664634e-01  2.42412046e-01  6.68231025e-02
+   2.84435660e-01  1.85648367e-01 -1.72117218e-01]
+ [ 5.34109473e-01 -5.96986786e-02 -2.84235388e-01  1.25649825e-01
+   6.37419755e-03 -5.95821626e-03  1.67025164e-01 -2.09913701e-01
+  -4.33291852e-01  1.22359000e-01  2.88429856e-01 -3.54141384e-01
+  -2.13040709e-01  5.78300834e-01 -5.14576472e-02 -3.49812806e-01
+  -3.64888936e-01 -2.22594887e-01  2.62906522e-01]
+ [ 5.75802438e-02  3.74885857e-01 -3.09222527e-02  5.47571659e-01
+  -3.25453073e-01 -1.72044829e-01 -1.55374527e-01 -6.97238073e-02
+   2.44079784e-01  7.07281083e-02 -3.74146365e-02  2.85344452e-01
+   1.57383919e-01  2.06070244e-01 -2.52552748e-01  1.96563810e-01
+  -2.03681529e-01 -5.29101416e-02  7.88369849e-02]
+ [-1.80052280e-01 -4.15881693e-01 -1.53518707e-01  2.38585144e-01
+   1.69955462e-01 -1.54843666e-02 -2.61188447e-01  2.86225677e-01
+   1.35736719e-01 -2.25503996e-01 -4.43199067e-04 -2.31673390e-01
+  -5.95114589e-01 -1.16938554e-01 -9.01221409e-02  6.17894679e-02
+  -8.04223493e-02 -2.83659160e-01 -3.71403277e-01]
+ [ 7.27788657e-02  3.32833856e-01 -3.72404277e-01  2.60551244e-01
+   1.54869348e-01 -2.24206030e-01  2.19561979e-01  5.01714237e-02
+  -6.13328815e-02 -1.70948282e-01  2.73862869e-01 -1.99269548e-01
+  -6.57576263e-01 -6.36171460e-01 -1.58620313e-01  2.30330769e-02
+   3.88274550e-01 -9.10195261e-02  2.02071190e-01]
+ [ 5.82604818e-02 -1.39245495e-01  8.10469538e-02 -2.11436987e-01
+  -1.23359069e-01 -4.18652385e-01 -5.04523069e-02  1.67985156e-01
+   1.77903190e-01  8.89103040e-02  2.16178969e-01  1.54275998e-01
+   1.58589169e-01 -1.11981899e-01 -2.40368009e-01 -1.17676578e-01
+  -2.85166204e-01  4.12403457e-02 -1.14553012e-01]
+ [ 3.00441682e-01  1.17083862e-01  2.66773373e-01  1.41817525e-01
+  -3.01416367e-01 -2.53348976e-01 -1.93232372e-01 -2.17351794e-01
+   1.90119982e-01  1.92471921e-01  3.01954806e-01 -1.70874014e-01
+  -8.95740464e-02  4.57536221e-01  3.16810638e-01  3.16982090e-01
+  -2.02032879e-01 -6.44264147e-02  1.66092187e-01]
+ [ 2.23919138e-01 -5.69042489e-02 -1.37358040e-01 -1.93879724e-01
+  -2.88423505e-02  1.40946489e-02 -2.13395759e-01 -3.54002208e-01
+   1.76795959e-01 -2.00777203e-02  1.36105597e-01  1.11175559e-01
+   2.44925827e-01 -8.10838416e-02  1.01896696e-01  1.73502207e-01
+  -2.34384507e-01  9.16964281e-03 -2.42681429e-01]
+ [ 2.41736439e-03 -2.93695092e-01  7.75010362e-02  1.08150266e-01
+  -2.03912809e-01  7.96810463e-02  1.92130022e-02 -1.01153487e-02
+   1.89141482e-01 -3.57212394e-01  2.28412405e-01 -1.92528710e-01
+  -1.86883301e-01  3.34934950e-01  4.41421360e-01 -5.33110313e-02
+  -2.74680734e-01 -6.67632446e-02  1.23007216e-01]
+ [ 4.06583846e-02 -2.01285422e-01 -3.22870344e-01  2.55626321e-01
+   1.92487370e-02 -3.71499769e-02 -8.75568837e-02 -7.32846707e-02
+  -6.07254403e-03 -3.98586914e-02 -1.76595613e-01  1.83912545e-01
+  -1.33229241e-01  1.32255018e-01  1.74730703e-01 -3.19203013e-03
+  -6.64921477e-02  3.29199195e-01 -2.99075812e-01]
+ [-2.14934554e-02 -4.70147491e-01 -1.98187634e-01 -1.60175100e-01
+  -1.39905930e-01  1.41963780e-01  1.20537914e-01 -2.81595826e-01
+  -1.85188890e-01  1.26908675e-01 -3.84610385e-01  6.95961937e-02
+   2.93688685e-01 -1.49865761e-01 -2.51811355e-01  2.87486315e-01
+  -2.28213519e-01  1.61284342e-01 -3.73316139e-01]
+ [-5.89913368e-01  3.06039937e-02 -1.98501930e-01  6.25120252e-02
+   1.22813135e-02 -2.64535815e-01  3.39474797e-01  4.79579568e-02
+  -1.29283607e-01 -5.22009373e-01  1.29302442e-01  2.81721085e-01
+  -2.66809255e-01  3.27502489e-01 -1.58038482e-01  4.63172272e-02
+  -2.03087181e-01 -5.88808618e-02  2.65904106e-02]
+ [-1.56485125e-01  3.13761950e-01 -2.06524402e-01 -2.98497975e-01
+   5.39719999e-01  3.28581572e-01 -1.75403338e-02  2.80461371e-01
+   4.86627296e-02  2.51741856e-01  1.44481450e-01  6.78719133e-02
+  -2.86027044e-01 -3.30222011e-01  1.18904084e-01 -8.51196870e-02
+   2.13066280e-01 -1.33584188e-02 -3.22509766e-01]
+ [ 1.10801160e-01  4.56112362e-02  1.17632531e-01  1.12649761e-02
+  -8.09637904e-02  2.07185239e-01 -3.02825570e-01  9.65320095e-02
+  -3.61760080e-01 -2.14021221e-01  2.13370612e-03  2.40627564e-02
+  -8.84654447e-02  1.68253765e-01  9.80022773e-02 -2.27652580e-01
+   1.08562544e-01 -4.39113557e-01 -7.96273649e-02]
+ [-9.48364660e-02  1.11220414e-02 -1.86723098e-01 -2.35400215e-01
+   6.58800304e-02 -2.61833102e-01 -2.44117349e-01 -1.17295735e-01
+  -3.86445135e-01  1.51673436e-01 -5.19522913e-02 -4.78327535e-02
+  -9.88735817e-03  2.05383465e-01 -2.93029577e-01  8.94703045e-02
+  -3.60459536e-01  2.89171308e-01  8.78673568e-02]
+ [ 3.41655880e-01 -1.88511685e-01 -2.94045419e-01  1.28873497e-01
+   1.31574124e-01 -5.55231385e-02  4.86369401e-01 -3.55857909e-01
+  -1.95544630e-01 -2.04946958e-02  1.10794969e-01  4.83714908e-01
+   5.65646328e-02 -1.39786810e-01 -2.39227191e-01 -1.78747565e-01
+  -3.08281600e-01  2.24418059e-01 -8.02296102e-02]
+ [-9.93475914e-02  2.09757790e-01  7.76143149e-02 -3.23211960e-02
+  -7.16896951e-02  3.47035676e-01  3.74925375e-01 -3.26497942e-01
+   1.02638878e-01 -8.55860636e-02 -5.86972870e-02  3.67868729e-02
+   9.40692797e-02 -4.03689407e-03 -1.48291767e-01 -2.03977451e-01
+   8.46318528e-02 -2.33627167e-02  1.27845451e-01]
+ [-6.06603129e-03 -1.17691703e-01 -1.74092576e-01 -4.50710744e-01
+  -1.95408046e-01 -9.49902926e-03  5.48294894e-02  1.22316785e-01
+   4.77683954e-02  2.88679868e-01 -1.65862262e-01  2.60353953e-01
+   2.04378180e-02  1.12180926e-01 -3.08545649e-01  9.94221345e-02
+   1.66883826e-01  2.22051069e-02 -1.15645334e-01]
+ [-2.48835936e-01 -6.59647882e-02  4.16601300e-01  2.60860056e-01
+   2.18132272e-01 -2.84665167e-01  3.89449708e-02  4.24774699e-02
+  -8.54971185e-02 -5.39199449e-02 -3.29676509e-01  2.84455180e-01
+  -2.38262221e-01  6.33734018e-02  9.99532044e-02 -9.83756930e-02
+  -6.59535546e-03  1.98022556e-02 -4.50527877e-01]
+ [ 1.39287099e-01  2.02357233e-01 -9.32668224e-02  4.48101401e-01
+   1.27346665e-01 -4.61587384e-02 -2.36701578e-01 -8.91720578e-02
+   3.85580122e-01 -2.72827327e-01  6.25828356e-02  5.36185950e-02
+   2.06761524e-01 -3.67888778e-01  2.18268484e-02  1.73169851e-01
+   1.71251342e-01 -6.24751225e-02 -2.97788054e-01]]</t>
+  </si>
+  <si>
+    <t>[[ 4.57904190e-01  8.98237005e-02 -2.30869791e-03  2.44095102e-01
+  -3.71551931e-01 -3.88441354e-01 -2.82424212e-01  2.92134345e-01
+   3.75282109e-01 -1.86981857e-01  8.96090269e-02 -7.07575381e-02
+  -2.19590157e-01 -4.34585243e-01 -3.48853856e-01 -1.61963582e-01
+  -1.16045870e-01 -2.28897378e-01  1.95781440e-01  2.04847887e-01]
+ [ 6.80502057e-01  1.73263520e-01 -2.53738582e-01  1.78891212e-01
+   3.05619091e-01  1.35553673e-01  1.62675664e-01 -6.64079860e-02
+   2.17589527e-01 -9.34700593e-02  2.62708515e-01 -4.37589943e-01
+   1.05443992e-01  1.78635046e-01  1.11453950e-01 -4.95180786e-02
+  -1.95699614e-02 -4.22053970e-02 -5.20114958e-01  4.49488819e-01]
+ [-6.80087283e-02  6.52454570e-02  1.55149773e-02  2.41749853e-01
+   2.90012151e-01 -7.78735951e-02 -4.49329764e-01 -2.19609588e-01
+  -1.50589794e-01  4.38850932e-02  3.18754584e-01 -1.07639596e-01
+  -1.39885679e-01  3.02189440e-01  4.21582460e-02 -1.27886012e-01
+   6.75214976e-02  4.59328666e-02 -2.21057400e-01 -2.02919140e-01]
+ [-8.19731057e-02 -3.20304334e-01  1.82241008e-01 -2.55389661e-01
+  -1.64887428e-01 -4.60379392e-01  1.82808220e-01 -1.70368209e-01
+  -1.05019264e-01  2.45886147e-01 -1.78233773e-01  1.11998856e-01
+  -1.56631172e-01 -1.67752914e-02  2.47423381e-01 -2.57056832e-01
+   7.07616359e-02  1.91620946e-01 -4.46808845e-01  3.97396088e-01]
+ [ 1.61666989e-01 -2.60646403e-01 -6.81755841e-02  2.07775645e-02
+  -3.49699445e-02 -4.51692730e-01 -1.10033222e-01  1.37743860e-01
+  -8.82161632e-02  5.46869859e-02  2.77134534e-02  1.81765817e-02
+  -1.45207062e-01  2.44305670e-01 -3.06744784e-01 -1.43765047e-01
+   1.49666071e-01 -1.02072880e-01 -1.69621289e-01  7.35093802e-02]
+ [ 4.49343145e-01 -2.13746443e-01 -1.04156181e-01  3.66752177e-01
+  -8.55931453e-03 -1.88567445e-01 -2.38342341e-02 -3.25551987e-01
+   2.10768104e-01  8.17927420e-02 -2.72928506e-01  2.86950588e-01
+   2.53836542e-01  2.79845804e-01  2.82960564e-01 -4.79008287e-01
+  -4.81934875e-01  4.58191969e-02  2.92989254e-01  4.77466285e-02]
+ [ 2.21220031e-01  5.19212931e-02 -1.21943913e-01  8.44410285e-02
+  -5.33578515e-01 -4.31500852e-01 -3.96236420e-01 -2.47803867e-01
+  -1.07466497e-01  9.36729014e-02  2.27420405e-01  2.18187511e-01
+   2.11159080e-01 -2.11306363e-01 -1.78957671e-01 -2.01013967e-01
+   9.50952843e-02  1.49784625e-01 -5.42225122e-01  1.08556651e-01]
+ [-2.71645263e-02 -1.28435984e-01 -3.84552896e-01 -1.80782199e-01
+   2.26805538e-01  2.49466766e-03 -2.92571902e-01  9.98694971e-02
+  -1.56530038e-01  4.86527644e-02 -1.01238750e-01 -8.05813074e-02
+   1.11384153e-01 -7.65248090e-02 -2.44740874e-01 -5.57813585e-01
+  -4.01027650e-01 -8.98942277e-02 -2.44616810e-02  2.66705781e-01]
+ [ 2.66583294e-01  4.10220057e-01 -8.67357403e-02  3.04327339e-01
+   3.31428856e-01 -3.31677087e-02 -3.09233338e-01  1.78172916e-01
+  -8.37490484e-02  1.83273181e-01 -4.02477711e-01 -4.37939972e-01
+  -1.36894450e-01 -9.28425416e-03  2.81739503e-01  7.96120912e-02
+   3.90930586e-02 -5.02160907e-01  1.95882261e-01 -2.01265067e-01]
+ [-4.86109525e-01 -2.46557221e-02 -2.63548106e-01  2.22960766e-02
+   2.33648345e-01  5.92562035e-02 -2.68867910e-01 -4.95614782e-02
+  -4.02639359e-01 -6.98687658e-02  3.29067469e-01  2.74210870e-01
+  -1.43979222e-01  2.53526926e-01 -1.13462605e-01 -2.81653941e-01
+  -4.05010842e-02 -2.15278462e-01 -1.25432372e-01  3.83892506e-01]
+ [-2.77753025e-01  3.67487967e-01  3.01968902e-01  1.48152173e-01
+  -4.66809869e-01 -9.94477570e-02  2.63266176e-01  1.05409965e-01
+  -2.47059643e-01  2.20502287e-01  3.76776308e-02  3.60578686e-01
+   2.63796359e-01 -6.87696561e-02 -2.66265813e-02 -3.08420569e-01
+   1.42291754e-01  1.93195492e-02 -1.81047916e-01 -5.65624475e-01]
+ [-3.24348301e-01 -1.70627926e-02 -5.89820333e-02  2.24192753e-01
+   4.42367733e-01  5.85714020e-02 -2.21037015e-01 -1.43616885e-01
+  -6.69824407e-02 -3.03599089e-01 -8.89790133e-02  1.69836000e-01
+   2.77581125e-01 -8.79761726e-02 -9.58591923e-02 -3.49707194e-02
+  -4.64926520e-03  3.59402746e-01 -2.62977686e-02 -2.35178813e-01]
+ [ 9.09804739e-03 -2.86041379e-01  2.83090651e-01 -1.37000412e-01
+   3.52777034e-01  4.20018554e-01  7.27981105e-02 -2.90981114e-01
+   8.22523143e-03 -1.70194656e-01  2.82446355e-01 -3.46798658e-01
+   4.47310805e-02  3.42327684e-01 -3.68964136e-01 -4.79092836e-01
+   2.16299027e-01  2.28440523e-01 -2.18066648e-01 -7.78627396e-02]
+ [-8.46651122e-02 -1.43647520e-02 -8.10020715e-02 -8.84177610e-02
+   2.33485714e-01 -3.13019007e-01  1.10220239e-01  1.60541520e-01
+   1.40139997e-01  7.15926811e-02  8.47021341e-02 -3.02431583e-01
+   1.18936621e-01 -9.17652920e-02 -2.39674881e-01 -3.96603048e-01
+  -3.23022723e-01 -6.67809024e-02  9.24263522e-02 -3.25310379e-01]
+ [ 2.88135856e-01  2.32624367e-01 -1.26670733e-01  2.04743415e-01
+   1.37584165e-01 -1.28801912e-01  2.40947917e-01  6.01595938e-02
+  -8.70680436e-03 -9.11137834e-03  1.01950720e-01 -1.30473495e-01
+  -3.85384378e-03 -2.34276056e-01  2.34344214e-01  3.46497416e-01
+   9.10314396e-02  2.99118273e-02  2.95516290e-02 -2.35150695e-01]
+ [ 1.37874976e-01  4.58573550e-01  1.48886666e-01  2.20960602e-01
+  -4.30283010e-01 -6.27689064e-02 -1.50934994e-01 -7.10500479e-01
+  -2.59380907e-01 -4.03253764e-01 -3.28949928e-01  5.70314646e-01
+  -3.75238322e-02 -9.12762771e-04  3.05334032e-02 -1.21290930e-01
+  -6.39032066e-01  1.55273095e-01 -4.84342456e-01 -8.74362662e-02]
+ [ 1.87804133e-01  1.92043975e-01 -3.55045527e-01  2.34751418e-01
+  -4.10378426e-01  2.12498799e-01 -2.83016205e-01 -5.72559945e-02
+   2.58869618e-01  4.58864689e-01  1.53217033e-01 -4.48003896e-02
+  -8.35140720e-02 -1.83943078e-01 -2.44743332e-01 -8.34667385e-02
+  -3.18764299e-02 -1.77289471e-02 -2.60137975e-01 -3.27770829e-01]
+ [ 4.79425490e-02  1.93854079e-01  1.80252999e-01  5.22683300e-02
+   5.34616001e-02 -2.75160640e-01 -1.10133812e-01  5.45249581e-02
+  -2.07397677e-02 -3.02077293e-01 -3.20980549e-01  2.77473718e-01
+   2.99848497e-01  2.17405409e-01 -2.70477057e-01 -2.67953664e-01
+  -1.31144240e-01 -4.37047929e-01 -2.22399503e-01  1.46578792e-02]
+ [-3.64460677e-01 -2.08042622e-01 -4.27203886e-02 -2.89453089e-01
+  -3.74251455e-02 -3.64720851e-01  4.42844093e-01 -2.59254724e-01
+   1.58204481e-01 -2.07255501e-02  9.22965929e-02  2.62764394e-01
+  -1.63898990e-01  9.77120250e-02  4.52001840e-01 -1.78755298e-01
+   2.42082164e-01 -4.48588401e-01  2.43553787e-01 -3.02727580e-01]
+ [-3.07850868e-01 -7.86607713e-02 -2.19340742e-01 -1.18258810e-02
+  -4.55462597e-02 -2.47572243e-01 -3.25671285e-01  1.46099225e-01
+   1.13672711e-01 -7.23760948e-02 -2.35111862e-01  7.79340193e-02
+  -4.12022322e-02  1.39428467e-01 -1.62576605e-02  1.34058699e-01
+   8.15394670e-02  5.46165630e-02 -6.84276998e-01 -1.12091340e-01]
+ [-4.23029244e-01 -3.01424235e-01  3.27103704e-01 -8.39666426e-02
+   1.04837932e-01 -2.84118056e-01  2.03424022e-01 -2.26144671e-01
+   9.67885852e-02 -1.24780446e-01 -4.93356027e-02 -7.64463171e-02
+   1.20940574e-01  2.13551044e-01  1.38917521e-01 -1.14959098e-01
+   1.69216916e-02  1.34694949e-01  1.66522473e-01 -1.42518014e-01]
+ [ 1.34432510e-01 -2.37907112e-01  6.85622692e-02 -1.81753814e-01
+  -1.49859950e-01  1.27358854e-01 -1.51480854e-01  1.19085677e-01
+   9.31982920e-02  2.65680581e-01  3.69448364e-01 -3.65562178e-02
+   6.30867109e-02 -5.95638976e-02  2.28628770e-01 -3.27232867e-01
+  -1.18674502e-01 -6.98587820e-02 -4.48483109e-01  1.30306244e-01]
+ [-1.93282351e-01 -1.79807484e-01  4.36801985e-02  2.86420006e-02
+  -1.87501699e-01 -6.48217872e-02  5.37383199e-01 -1.81053758e-01
+   1.08447380e-01 -5.10025769e-02  1.17037930e-01 -1.29431158e-01
+   7.16633722e-02 -2.90436465e-02  9.37748551e-02  1.44857228e-01
+   2.50914276e-01 -4.11591053e-01  2.25474417e-01  1.70104221e-01]
+ [-1.33137722e-02  3.80285114e-01 -2.84201920e-01 -1.38190329e-01
+   1.13485903e-01 -1.36847988e-01  2.30593234e-01  1.00414716e-01
+   2.87178177e-02 -4.98954713e-01 -2.79305547e-01  4.76588666e-01
+   2.83338606e-01 -1.84480578e-01 -1.37596861e-01 -3.00278425e-01
+   9.08265561e-02 -7.00314716e-02  2.02105120e-02  4.94622707e-01]
+ [ 1.02238879e-01 -6.41174987e-02  2.28691652e-01 -1.75131500e-01
+   4.03407551e-02  6.18618876e-02  2.11636558e-01 -3.93165678e-01
+  -3.82547617e-01  4.77548480e-01 -5.48891127e-02  2.21617907e-01
+  -6.51095286e-02 -3.07372987e-01  3.05681467e-01  2.02968255e-01
+   8.83397609e-02 -1.11482725e-01  6.79486468e-02  1.62352949e-01]
+ [-3.67101371e-01  2.03533694e-01 -4.26256686e-01 -1.58746406e-01
+  -3.90796689e-03 -2.70462662e-01 -1.90149829e-01  2.38109846e-02
+   3.44942696e-03 -1.13156751e-01 -1.81637838e-01  2.62990385e-01
+   2.38494836e-02 -1.10386841e-01 -2.78833270e-01 -2.34302759e-01
+  -2.60072321e-01 -2.10454792e-01 -8.53694137e-03 -2.92825047e-02]
+ [-6.14392422e-02 -1.55806541e-02  1.95444614e-01  4.28223470e-03
+   2.45627791e-01 -4.19967443e-01  2.40681931e-01  3.27408403e-01
+   3.28695923e-01 -1.26299307e-01 -4.54859525e-01 -2.77430981e-01
+   4.67566341e-01  1.25872105e-01 -6.80667013e-02  1.25215471e-01
+   2.44014114e-02 -1.18267402e-01 -1.10822141e-01  1.49315193e-01]
+ [ 9.53717828e-02  4.27788198e-01  3.23983550e-01 -2.37817958e-01
+   8.50874558e-03 -5.38092293e-02  7.58866519e-02 -6.86429292e-02
+  -5.16746491e-02 -2.06715334e-02 -3.90686542e-01 -9.87763703e-02
+   6.45620450e-02 -1.56712621e-01 -5.10596097e-01  1.01841815e-01
+  -3.68596792e-01 -8.39678869e-02  1.53499007e-01 -2.87801892e-01]
+ [ 5.11806965e-01 -2.91443884e-01 -1.00313544e-01 -1.26121312e-01
+  -2.34000072e-01  1.20762289e-01 -1.57287791e-01  1.24596514e-01
+  -3.05311769e-01  1.88139901e-01  1.54759154e-01 -1.20935746e-01
+   2.81626076e-01 -4.45425481e-01 -2.85915375e-01  1.90383241e-01
+   1.37166232e-01  1.46466130e-02 -2.06102520e-01 -5.69144368e-01]
+ [ 2.73859888e-01 -1.95434457e-03  7.61289597e-02 -6.18296005e-02
+   3.39964151e-01 -2.06739798e-01  1.11031838e-01 -4.00097072e-01
+   2.34145492e-01 -1.09509237e-01  1.42341748e-01 -2.54407793e-01
+  -2.32041359e-01  1.19846486e-01  1.49419069e-01 -5.52853495e-02
+   2.85042733e-01  6.24416210e-02 -4.05922025e-01 -3.56189758e-01]
+ [ 1.60628036e-01 -3.20485562e-01 -5.42715341e-02 -2.18369797e-01
+  -2.08601117e-01  1.27123371e-01  3.43040973e-02 -2.68529803e-01
+   6.13225214e-02  2.15059449e-03 -6.81448821e-03  3.04475993e-01
+   2.15505898e-01 -2.40234733e-01  4.93157208e-01 -8.34332928e-02
+   1.71840057e-01 -2.44007289e-01 -3.82506013e-01  1.71447899e-02]
+ [ 2.00149983e-01  2.22213730e-01 -4.02332619e-02 -7.60336593e-02
+  -2.88171351e-01  4.13301140e-01 -1.05322283e-02 -3.79145384e-01
+   1.36408001e-01  5.09156406e-01 -8.09173286e-02  4.08528596e-01
+  -3.29319209e-01  1.16782542e-02  3.88862997e-01  3.43860127e-02
+  -2.52897739e-01 -3.95338237e-02  4.34990861e-02 -4.46041495e-01]
+ [ 1.09911487e-01  6.26905560e-02  3.30247641e-01 -2.73252815e-01
+  -2.84703612e-01 -1.65258497e-01  2.70135403e-01 -2.21983597e-01
+   4.08846438e-02  1.11348085e-01  2.71604717e-01 -2.71603644e-01
+   8.34352672e-02  8.06299895e-02 -5.21494448e-01 -2.74281800e-01
+   3.68013740e-01  4.26097333e-01 -6.85680509e-02 -2.77790660e-03]
+ [ 1.75914133e-03  4.86681312e-02  2.34365597e-01  1.73004941e-04
+   3.02164674e-01  3.64111990e-01  1.24214552e-01  3.45530473e-02
+  -1.76081449e-01 -2.23032936e-01 -3.98785651e-01  1.08923647e-03
+  -2.48608246e-01 -8.01764131e-02  8.87176543e-02 -2.15736970e-01
+  -4.49901372e-02  4.68893647e-01 -2.99819708e-01  1.59374744e-01]]</t>
+  </si>
+  <si>
+    <t>[0.54482067]</t>
+  </si>
+  <si>
+    <t>[0.32125133 0.35464162]</t>
+  </si>
+  <si>
+    <t>[ 0.41971818  0.28855175 -0.01245453]</t>
+  </si>
+  <si>
+    <t>[ 0.2513802   0.14357641  0.31441545 -0.32505628]</t>
+  </si>
+  <si>
+    <t>[ 0.3937303  -0.1328929  -0.03330611 -0.21938471  0.03202782]</t>
+  </si>
+  <si>
+    <t>[ 0.01845196 -0.13399959 -0.19161026  0.14116445  0.15804668  0.02724342]</t>
+  </si>
+  <si>
+    <t>[ 0.1182666  -0.0596948  -0.01063138  0.15695576 -0.3390745  -0.07410055
+  0.14886495]</t>
+  </si>
+  <si>
+    <t>[ 0.2521266  -0.03692805 -0.2745096  -0.064329   -0.04969971  0.0643338
+  0.08092273  0.10363179]</t>
+  </si>
+  <si>
+    <t>[ 0.15055308 -0.04655455  0.15312041 -0.06341104 -0.19551769 -0.2055893
+ -0.15326756  0.16856521 -0.20220837]</t>
+  </si>
+  <si>
+    <t>[-0.12329615 -0.03117293  0.07340559 -0.27983472  0.20002142 -0.15370485
+ -0.02950279  0.12896344 -0.07542712  0.0014908 ]</t>
+  </si>
+  <si>
+    <t>[ 0.15238164  0.07383392 -0.26583412  0.00633949 -0.19069669 -0.0021936
+  0.05184281 -0.11185139 -0.01005662  0.07353087  0.01822714]</t>
+  </si>
+  <si>
+    <t>[ 0.03442668 -0.03697316 -0.01586439 -0.1106768   0.00393829 -0.15256426
+ -0.19890581  0.19475986 -0.04399249  0.19268367 -0.15996052 -0.07860079]</t>
+  </si>
+  <si>
+    <t>[-0.0643632  -0.13927056 -0.11848664  0.0595049  -0.1724275  -0.04644611
+  0.09874307  0.02033565 -0.17190933 -0.20611207 -0.17148332  0.02315858
+ -0.12812412]</t>
+  </si>
+  <si>
+    <t>[ 0.10833283 -0.17297103  0.0427851  -0.08429916 -0.09570175  0.07783041
+  0.02820019 -0.0027872   0.0200386  -0.2700617  -0.08871409  0.12700567
+  0.00344054 -0.12777752]</t>
+  </si>
+  <si>
+    <t>[-0.01133139 -0.02704605 -0.12314448 -0.07014428 -0.1345819  -0.12976515
+  0.09036537 -0.05330159  0.15691084  0.01400394  0.10734921 -0.00281486
+ -0.00782538 -0.20736156 -0.28137672]</t>
+  </si>
+  <si>
+    <t>[-0.23803498  0.02252408 -0.09759569  0.01105573  0.0104078   0.03497678
+ -0.05264671  0.00478343 -0.19518162 -0.08840057  0.03308616 -0.07108504
+  0.12854154 -0.08458059 -0.09535097 -0.25250408]</t>
+  </si>
+  <si>
+    <t>[ 0.01568474 -0.01333177 -0.00564636  0.05879744 -0.12559105 -0.15058258
+ -0.04084177 -0.1275114  -0.16946553 -0.09280416  0.05273664 -0.23730727
+ -0.00425745  0.10492527  0.05490288 -0.1652653  -0.03469126]</t>
+  </si>
+  <si>
+    <t>[-0.16925465 -0.07818329  0.01271191  0.01117643 -0.06257581  0.00522212
+  0.0678917  -0.0012311  -0.18472514 -0.16681327  0.04297059  0.05879515
+ -0.05663635 -0.08888444 -0.09815101  0.0302131  -0.03283507  0.03187415]</t>
+  </si>
+  <si>
+    <t>[-1.4636123e-01 -1.3335311e-02 -1.4982155e-01  4.5594905e-02
+  9.0970192e-05  1.1302935e-01  1.9304195e-02  7.9947762e-02
+  1.1782753e-01 -2.5950447e-01  9.2703260e-02 -2.0466681e-01
+ -6.6878162e-02 -1.6736197e-01  3.5913303e-02 -9.3507044e-02
+  6.1199047e-02 -1.7338368e-01  6.5345146e-02]</t>
+  </si>
+  <si>
+    <t>[-0.17460847 -0.1516058  -0.19494675  0.05987578 -0.03091554 -0.01163477
+ -0.04771828 -0.19965594  0.12152518 -0.1221204  -0.12618028 -0.08342525
+ -0.13223232  0.00458293  0.01347134 -0.07229862 -0.04603248  0.19697486
+ -0.18070106  0.06414502]</t>
+  </si>
+  <si>
+    <t>[[-1.039642]]</t>
+  </si>
+  <si>
+    <t>[[ 0.42336965]
+ [-0.5374225 ]]</t>
+  </si>
+  <si>
+    <t>[[ 0.4107416]
+ [-0.842336 ]
+ [ 0.3982655]]</t>
+  </si>
+  <si>
+    <t>[[-0.4826295 ]
+ [-0.32989997]
+ [ 0.29148477]
+ [ 0.71036804]]</t>
+  </si>
+  <si>
+    <t>[[ 0.2844312 ]
+ [-0.4942575 ]
+ [-0.26601094]
+ [-0.594188  ]
+ [-0.29856822]]</t>
+  </si>
+  <si>
+    <t>[[ 0.41849408]
+ [-0.63339853]
+ [ 0.61809325]
+ [-0.3346455 ]
+ [-0.40438652]
+ [-0.33589292]]</t>
+  </si>
+  <si>
+    <t>[[-0.5258446 ]
+ [ 0.30127302]
+ [ 0.30910456]
+ [ 0.21073343]
+ [-0.23962401]
+ [ 0.34683385]
+ [-0.4526327 ]]</t>
+  </si>
+  <si>
+    <t>[[-0.23024341]
+ [ 0.28651574]
+ [ 0.366398  ]
+ [-0.46538037]
+ [ 0.60641825]
+ [-0.11671776]
+ [-0.30490816]
+ [ 0.17733546]]</t>
+  </si>
+  <si>
+    <t>[[-0.5338588 ]
+ [-0.343793  ]
+ [ 0.35981223]
+ [-0.19589669]
+ [-0.36595383]
+ [-0.34245867]
+ [-0.5991408 ]
+ [-0.14885867]
+ [-0.486662  ]]</t>
+  </si>
+  <si>
+    <t>[[-0.20709445]
+ [ 0.20475183]
+ [-0.41631946]
+ [-0.5639513 ]
+ [ 0.23080689]
+ [-0.48824152]
+ [ 0.19961384]
+ [-0.43068582]
+ [-0.1797632 ]
+ [ 0.1848581 ]]</t>
+  </si>
+  <si>
+    <t>[[-0.28120425]
+ [ 0.2142966 ]
+ [-0.47266036]
+ [-0.47618756]
+ [ 0.4334687 ]
+ [-0.4104828 ]
+ [-0.21603428]
+ [-0.17725906]
+ [ 0.6184706 ]
+ [ 0.16494453]
+ [ 0.53481126]]</t>
+  </si>
+  <si>
+    <t>[[ 0.36375642]
+ [-0.13490777]
+ [ 0.12256302]
+ [ 0.24400549]
+ [ 0.26352292]
+ [ 0.32385933]
+ [ 0.07559358]
+ [-0.47121456]
+ [ 0.39337432]
+ [ 0.1397646 ]
+ [ 0.19822364]
+ [-0.35646942]]</t>
+  </si>
+  <si>
+    <t>[[-0.27565557]
+ [-0.42349488]
+ [-0.1615497 ]
+ [ 0.5110614 ]
+ [-0.24365881]
+ [ 0.42377344]
+ [ 0.36182562]
+ [-0.40234667]
+ [ 0.19412999]
+ [-0.19853868]
+ [-0.14363839]
+ [-0.29883364]
+ [-0.13153933]]</t>
+  </si>
+  <si>
+    <t>[[ 0.27999502]
+ [-0.5129799 ]
+ [ 0.4268294 ]
+ [-0.19819646]
+ [-0.156351  ]
+ [-0.25321016]
+ [ 0.15763533]
+ [ 0.20740387]
+ [ 0.37742525]
+ [-0.25218022]
+ [-0.38795477]
+ [-0.36420605]
+ [-0.21535562]
+ [-0.22611432]]</t>
+  </si>
+  <si>
+    <t>[[ 0.38319185]
+ [ 0.44757393]
+ [-0.351004  ]
+ [-0.4166297 ]
+ [ 0.36855647]
+ [-0.34253258]
+ [-0.30055803]
+ [ 0.3302138 ]
+ [ 0.15266898]
+ [ 0.24544358]
+ [ 0.21137354]
+ [-0.31008038]
+ [-0.29152057]
+ [-0.26447988]
+ [ 0.1857429 ]]</t>
+  </si>
+  <si>
+    <t>[[-0.21724768]
+ [ 0.35925552]
+ [-0.5236182 ]
+ [ 0.29532737]
+ [ 0.23453222]
+ [ 0.0762772 ]
+ [-0.5260287 ]
+ [-0.11492766]
+ [-0.30474213]
+ [ 0.24495643]
+ [ 0.27085698]
+ [-0.23549664]
+ [-0.34360516]
+ [ 0.19359255]
+ [ 0.58179986]
+ [-0.12933272]]</t>
+  </si>
+  <si>
+    <t>[[ 0.17248516]
+ [-0.23600502]
+ [ 0.1237168 ]
+ [ 0.30713698]
+ [-0.27126306]
+ [-0.28137895]
+ [-0.2670775 ]
+ [ 0.47714815]
+ [ 0.39870697]
+ [ 0.22729015]
+ [ 0.2750983 ]
+ [ 0.32249978]
+ [-0.36230797]
+ [ 0.1666504 ]
+ [-0.32171923]
+ [ 0.4099875 ]
+ [-0.26570854]]</t>
+  </si>
+  <si>
+    <t>[[-0.31800425]
+ [ 0.42229718]
+ [-0.35974672]
+ [ 0.09029373]
+ [-0.37934798]
+ [ 0.51130104]
+ [ 0.287187  ]
+ [ 0.25470072]
+ [ 0.32702932]
+ [-0.18687405]
+ [-0.45094422]
+ [-0.36187375]
+ [-0.3799745 ]
+ [ 0.21428093]
+ [ 0.32876197]
+ [-0.31723183]
+ [-0.22710441]
+ [ 0.4031144 ]]</t>
+  </si>
+  <si>
+    <t>[[-0.30338934]
+ [-0.23081107]
+ [ 0.3638902 ]
+ [ 0.08052317]
+ [ 0.28435645]
+ [-0.21129224]
+ [-0.37818587]
+ [-0.5052914 ]
+ [ 0.29740748]
+ [ 0.28836003]
+ [ 0.25489798]
+ [ 0.15492178]
+ [ 0.12045618]
+ [ 0.17485137]
+ [-0.4080392 ]
+ [-0.48883066]
+ [ 0.37235612]
+ [ 0.4357034 ]
+ [ 0.40116996]]</t>
+  </si>
+  <si>
+    <t>[[-0.19355671]
+ [-0.34739336]
+ [-0.36213824]
+ [ 0.40437937]
+ [-0.25362927]
+ [ 0.06781425]
+ [-0.16802132]
+ [-0.34156698]
+ [ 0.40111625]
+ [-0.31914103]
+ [-0.41841307]
+ [-0.18853554]
+ [-0.4577733 ]
+ [-0.32466513]
+ [-0.3208237 ]
+ [-0.16358583]
+ [ 0.5639725 ]
+ [ 0.18736823]
+ [-0.23534182]
+ [ 0.09740423]]</t>
+  </si>
+  <si>
+    <t>[0.5748327]</t>
+  </si>
+  <si>
+    <t>[0.03530269]</t>
+  </si>
+  <si>
+    <t>[-0.0339586]</t>
+  </si>
+  <si>
+    <t>[0.14546882]</t>
+  </si>
+  <si>
+    <t>[0.16315208]</t>
+  </si>
+  <si>
+    <t>[0.22389422]</t>
+  </si>
+  <si>
+    <t>[0.0329603]</t>
+  </si>
+  <si>
+    <t>[0.03711365]</t>
+  </si>
+  <si>
+    <t>[0.36133268]</t>
+  </si>
+  <si>
+    <t>[0.11763654]</t>
+  </si>
+  <si>
+    <t>[0.15896496]</t>
+  </si>
+  <si>
+    <t>[-0.17970447]</t>
+  </si>
+  <si>
+    <t>[0.06778665]</t>
+  </si>
+  <si>
+    <t>[0.15121707]</t>
+  </si>
+  <si>
+    <t>[-0.01148482]</t>
+  </si>
+  <si>
+    <t>[0.11019322]</t>
+  </si>
+  <si>
+    <t>[-0.03309069]</t>
+  </si>
+  <si>
+    <t>[0.18426447]</t>
+  </si>
+  <si>
+    <t>[-0.02473969]</t>
+  </si>
+  <si>
+    <t>[0.25129902]</t>
   </si>
 </sst>
 </file>
@@ -892,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01925336569547653</v>
+        <v>0.009996261447668076</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -912,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.01840003207325935</v>
+        <v>0.007970592938363552</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -932,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.01846074871718884</v>
+        <v>0.008261457085609436</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -952,7 +2711,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.01798416301608086</v>
+        <v>0.007090972736477852</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -972,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.01807549223303795</v>
+        <v>0.007673869375139475</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -992,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.01806733570992947</v>
+        <v>0.006486230529844761</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1012,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.01806738786399364</v>
+        <v>0.006126875523477793</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1032,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.0180940181016922</v>
+        <v>0.005652950145304203</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1052,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.0180856566876173</v>
+        <v>0.005600011441856623</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1072,7 +2831,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.01823979616165161</v>
+        <v>0.005843969993293285</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1092,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.0182682815939188</v>
+        <v>0.005862985737621784</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1112,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.01829406246542931</v>
+        <v>0.005544103682041168</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1132,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.01839036121964455</v>
+        <v>0.005584795027971268</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1152,7 +2911,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.01841946877539158</v>
+        <v>0.005062639247626066</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1172,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.01843171380460262</v>
+        <v>0.004643772263079882</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1192,7 +2951,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.01850740425288677</v>
+        <v>0.004872314631938934</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1212,7 +2971,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.01848751306533813</v>
+        <v>0.004896709695458412</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1232,7 +2991,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.01852500252425671</v>
+        <v>0.004594974685460329</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1252,7 +3011,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01861612498760223</v>
+        <v>0.004476349335163832</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1272,7 +3031,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01861060597002506</v>
+        <v>0.004684489220380783</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
